--- a/Quantriduanexcel.xlsx
+++ b/Quantriduanexcel.xlsx
@@ -1,35 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QTDACNTT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRUNG DONG\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A20908-137A-44CC-A8DC-E4DC984D9145}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="16" r:id="rId1"/>
     <sheet name="Operation Test" sheetId="15" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Operation Test'!$A$1:$K$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Operation Test'!$A$1:$K$76</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Overview!$A$1:$Y$37</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nguyen Duc Tien</author>
   </authors>
   <commentList>
-    <comment ref="B33" authorId="0" shapeId="0">
+    <comment ref="B39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H34" authorId="0" shapeId="0">
+    <comment ref="H40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J34" authorId="0" shapeId="0">
+    <comment ref="J40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="0" shapeId="0">
+    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H36" authorId="0" shapeId="0">
+    <comment ref="H42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -97,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I36" authorId="0" shapeId="0">
+    <comment ref="I42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J36" authorId="0" shapeId="0">
+    <comment ref="J42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -123,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A37" authorId="0" shapeId="0">
+    <comment ref="A43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -155,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H38" authorId="0" shapeId="0">
+    <comment ref="H44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -168,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I38" authorId="0" shapeId="0">
+    <comment ref="I44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -181,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A39" authorId="0" shapeId="0">
+    <comment ref="A45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -199,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="96">
   <si>
     <t>Online ID</t>
   </si>
@@ -207,9 +208,6 @@
     <t>Resp</t>
   </si>
   <si>
-    <t>23/08/2008</t>
-  </si>
-  <si>
     <t>BUG21312</t>
   </si>
   <si>
@@ -319,9 +317,6 @@
   </si>
   <si>
     <t>AnhDV</t>
-  </si>
-  <si>
-    <t>20/08/2008</t>
   </si>
   <si>
     <t>DinhPX</t>
@@ -461,9 +456,6 @@
     <t>Mất điện server hoặc trục trặc mạng</t>
   </si>
   <si>
-    <t>Người dùng sau khi vào lại yêu cầu đăng ký tiếp tcuj</t>
-  </si>
-  <si>
     <t>notOK</t>
   </si>
   <si>
@@ -474,12 +466,39 @@
   </si>
   <si>
     <t>Xem lại các ca làm việc</t>
+  </si>
+  <si>
+    <t>Đang đăng ký ca thì máy tính sập</t>
+  </si>
+  <si>
+    <t>Do máy tính mình hỏng hoặc hết pin</t>
+  </si>
+  <si>
+    <t>Người dùng sau khi vào lại yêu cầu đăng ký tiếp tục</t>
+  </si>
+  <si>
+    <t>TrongBV</t>
+  </si>
+  <si>
+    <t>CuongDD</t>
+  </si>
+  <si>
+    <t>HậuNT</t>
+  </si>
+  <si>
+    <t>DongLT</t>
+  </si>
+  <si>
+    <t>HauNT</t>
+  </si>
+  <si>
+    <t>10.1.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
   </numFmts>
@@ -664,7 +683,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -722,6 +741,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="24"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,7 +1027,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1303,6 +1346,45 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1310,149 +1392,251 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="21" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1631,6 +1815,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1666,6 +1867,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1841,7 +2059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2">
     <tabColor indexed="46"/>
   </sheetPr>
@@ -1893,7 +2111,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="5"/>
@@ -1974,13 +2192,13 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="O6" s="134" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
+      <c r="O6" s="147" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="147"/>
+      <c r="R6" s="147"/>
+      <c r="S6" s="147"/>
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
@@ -1990,11 +2208,11 @@
       <c r="B7" s="22"/>
       <c r="E7" s="4"/>
       <c r="G7" s="21"/>
-      <c r="O7" s="134"/>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="134"/>
-      <c r="R7" s="134"/>
-      <c r="S7" s="134"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="147"/>
+      <c r="Q7" s="147"/>
+      <c r="R7" s="147"/>
+      <c r="S7" s="147"/>
       <c r="X7" s="23"/>
     </row>
     <row r="8" spans="1:24" s="24" customFormat="1" ht="14.25" customHeight="1">
@@ -2009,10 +2227,10 @@
       <c r="B9" s="30"/>
       <c r="C9" s="18"/>
       <c r="D9" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
@@ -2023,7 +2241,7 @@
       <c r="B10" s="30"/>
       <c r="C10" s="18"/>
       <c r="D10" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -2033,7 +2251,7 @@
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
@@ -2047,34 +2265,34 @@
       <c r="B11" s="30"/>
       <c r="C11" s="18"/>
       <c r="D11" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="135">
+        <v>14</v>
+      </c>
+      <c r="E11" s="148">
         <f ca="1">TODAY()</f>
         <v>43443</v>
       </c>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
       <c r="H11" s="74"/>
       <c r="L11" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
       <c r="O11" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P11" s="33"/>
       <c r="Q11" s="33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R11" s="33"/>
       <c r="S11" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T11" s="33"/>
       <c r="U11" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V11" s="33"/>
       <c r="X11" s="19"/>
@@ -2082,7 +2300,7 @@
     <row r="12" spans="1:24">
       <c r="B12" s="30"/>
       <c r="L12" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
@@ -2160,7 +2378,7 @@
     <row r="15" spans="1:24">
       <c r="B15" s="30"/>
       <c r="D15" s="27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
@@ -2291,7 +2509,7 @@
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
       <c r="L19" s="36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M19" s="37"/>
       <c r="N19" s="37"/>
@@ -2343,7 +2561,7 @@
       <c r="B22" s="15"/>
       <c r="C22" s="4"/>
       <c r="D22" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
@@ -2370,7 +2588,7 @@
       <c r="G24" s="44"/>
       <c r="H24" s="44"/>
       <c r="L24" s="116" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M24" s="106"/>
       <c r="N24" s="106"/>
@@ -2505,7 +2723,7 @@
     <row r="31" spans="2:35">
       <c r="B31" s="15"/>
       <c r="C31" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="28"/>
@@ -2541,7 +2759,7 @@
     <row r="32" spans="2:35">
       <c r="B32" s="46"/>
       <c r="C32" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -2611,7 +2829,7 @@
     <row r="34" spans="1:35">
       <c r="B34" s="30"/>
       <c r="C34" s="39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="28"/>
@@ -2647,7 +2865,7 @@
     <row r="35" spans="1:35">
       <c r="B35" s="30"/>
       <c r="C35" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -2908,14 +3126,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor indexed="31"/>
   </sheetPr>
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A45" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2929,7 +3147,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="60" customFormat="1">
       <c r="A1" s="79" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="80" t="str">
         <f>Overview!E9</f>
@@ -2940,26 +3158,26 @@
       <c r="E1" s="81"/>
       <c r="F1" s="81"/>
       <c r="G1" s="82" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H1" s="83" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I1" s="103">
-        <f>COUNTIF(H1:H798,"OK")</f>
+        <f>COUNTIF(H1:H816,"OK")</f>
         <v>1</v>
       </c>
       <c r="J1" s="84" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" s="60" customFormat="1">
       <c r="A2" s="118" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="87"/>
       <c r="D2" s="87"/>
@@ -2967,23 +3185,23 @@
       <c r="F2" s="88"/>
       <c r="G2" s="89"/>
       <c r="H2" s="90" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I2" s="104">
-        <f>COUNTIF(H2:H799,"Not OK")</f>
+        <f>COUNTIF(H2:H817,"Not OK")</f>
         <v>2</v>
       </c>
       <c r="J2" s="91" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K2" s="92"/>
     </row>
     <row r="3" spans="1:11" s="60" customFormat="1" ht="11.25" customHeight="1">
       <c r="A3" s="86" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="87" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="87"/>
@@ -2991,14 +3209,14 @@
       <c r="F3" s="88"/>
       <c r="G3" s="89"/>
       <c r="H3" s="90" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I3" s="105">
-        <f>COUNTIF(H2:H799,"Untested")</f>
+        <f>COUNTIF(H2:H817,"Untested")</f>
         <v>0</v>
       </c>
       <c r="J3" s="91" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K3" s="92"/>
     </row>
@@ -3010,12 +3228,12 @@
       <c r="E4" s="88"/>
       <c r="F4" s="88"/>
       <c r="G4" s="94" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H4" s="87"/>
       <c r="I4" s="104">
-        <f>COUNTIF(H3:H800,"Result")</f>
-        <v>7</v>
+        <f>COUNTIF(H3:H818,"Result")</f>
+        <v>10</v>
       </c>
       <c r="J4" s="91"/>
       <c r="K4" s="92"/>
@@ -3048,10 +3266,10 @@
     </row>
     <row r="7" spans="1:11" ht="10.5" customHeight="1">
       <c r="A7" s="101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="119" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="119"/>
       <c r="D7" s="119"/>
@@ -3065,49 +3283,49 @@
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A8" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="122" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" s="122" t="s">
-        <v>27</v>
       </c>
       <c r="C8" s="123"/>
       <c r="D8" s="122" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8" s="123"/>
       <c r="F8" s="122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="123"/>
       <c r="H8" s="121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" s="121"/>
       <c r="J8" s="121" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="48" t="s">
         <v>30</v>
-      </c>
-      <c r="K8" s="48" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="10.5" customHeight="1">
       <c r="A9" s="49">
         <v>1</v>
       </c>
-      <c r="B9" s="178" t="s">
+      <c r="B9" s="166" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="167"/>
+      <c r="D9" s="149" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="150"/>
+      <c r="F9" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="179"/>
-      <c r="D9" s="166" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="167"/>
-      <c r="F9" s="160" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="161"/>
+      <c r="G9" s="141"/>
       <c r="H9" s="129" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I9" s="130"/>
       <c r="J9" s="49"/>
@@ -3115,37 +3333,37 @@
     </row>
     <row r="10" spans="1:11" ht="10.5" customHeight="1">
       <c r="A10" s="120" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="180"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="163"/>
+        <v>31</v>
+      </c>
+      <c r="B10" s="168"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="143"/>
       <c r="H10" s="120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="120" t="s">
         <v>1</v>
       </c>
       <c r="J10" s="120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10" s="127"/>
     </row>
     <row r="11" spans="1:11" ht="10.5" customHeight="1">
       <c r="A11" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="180"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="163"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="168"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="143"/>
       <c r="H11" s="51" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="I11" s="51"/>
       <c r="J11" s="49"/>
@@ -3155,17 +3373,17 @@
       <c r="A12" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="180"/>
-      <c r="C12" s="181"/>
-      <c r="D12" s="168"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="162"/>
-      <c r="G12" s="163"/>
+      <c r="B12" s="168"/>
+      <c r="C12" s="169"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="143"/>
       <c r="H12" s="120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J12" s="120"/>
       <c r="K12" s="127"/>
@@ -3174,14 +3392,14 @@
       <c r="A13" s="52">
         <v>111</v>
       </c>
-      <c r="B13" s="182"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="54" t="s">
-        <v>40</v>
+      <c r="B13" s="170"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="54">
+        <v>43355</v>
       </c>
       <c r="I13" s="54"/>
       <c r="J13" s="55"/>
@@ -3189,95 +3407,95 @@
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A14" s="56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="124" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="125"/>
       <c r="D14" s="124" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" s="125"/>
       <c r="F14" s="124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="125"/>
       <c r="H14" s="131" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="131"/>
       <c r="J14" s="131" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="57" t="s">
         <v>30</v>
-      </c>
-      <c r="K14" s="57" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="10.5" customHeight="1">
       <c r="A15" s="49">
         <v>2</v>
       </c>
-      <c r="B15" s="178" t="s">
+      <c r="B15" s="166" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="167"/>
+      <c r="D15" s="149" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="150"/>
+      <c r="F15" s="149" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="150"/>
+      <c r="H15" s="132" t="s">
         <v>66</v>
-      </c>
-      <c r="C15" s="179"/>
-      <c r="D15" s="166" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="167"/>
-      <c r="F15" s="166" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="167"/>
-      <c r="H15" s="132" t="s">
-        <v>68</v>
       </c>
       <c r="I15" s="133"/>
       <c r="J15" s="53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15" s="126"/>
     </row>
     <row r="16" spans="1:11" ht="10.5" customHeight="1">
       <c r="A16" s="131" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="180"/>
-      <c r="C16" s="181"/>
-      <c r="D16" s="168"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="169"/>
+        <v>31</v>
+      </c>
+      <c r="B16" s="168"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="152"/>
       <c r="H16" s="131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I16" s="131" t="s">
         <v>1</v>
       </c>
       <c r="J16" s="131" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K16" s="127"/>
     </row>
     <row r="17" spans="1:11" ht="10.5" customHeight="1">
       <c r="A17" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="180"/>
-      <c r="C17" s="181"/>
-      <c r="D17" s="168"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="169"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="168"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="152"/>
       <c r="H17" s="51" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="I17" s="51" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="J17" s="49" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="K17" s="127"/>
     </row>
@@ -3285,17 +3503,17 @@
       <c r="A18" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="180"/>
-      <c r="C18" s="181"/>
-      <c r="D18" s="168"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="169"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="152"/>
       <c r="H18" s="131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I18" s="131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J18" s="131"/>
       <c r="K18" s="127"/>
@@ -3304,66 +3522,66 @@
       <c r="A19" s="52">
         <v>211</v>
       </c>
-      <c r="B19" s="182"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="51" t="s">
-        <v>2</v>
+      <c r="B19" s="170"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="51">
+        <v>43355</v>
+      </c>
+      <c r="I19" s="51">
+        <v>43355</v>
       </c>
       <c r="J19" s="49"/>
       <c r="K19" s="127"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A20" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="122" t="s">
         <v>26</v>
-      </c>
-      <c r="B20" s="122" t="s">
-        <v>27</v>
       </c>
       <c r="C20" s="123"/>
       <c r="D20" s="122" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E20" s="123"/>
       <c r="F20" s="122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" s="123"/>
       <c r="H20" s="121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I20" s="121"/>
       <c r="J20" s="121" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="48" t="s">
         <v>30</v>
-      </c>
-      <c r="K20" s="48" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="10.5" customHeight="1">
       <c r="A21" s="49">
         <v>3</v>
       </c>
-      <c r="B21" s="178" t="s">
+      <c r="B21" s="166" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="167"/>
+      <c r="D21" s="149" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="150"/>
+      <c r="F21" s="149" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="150"/>
+      <c r="H21" s="129" t="s">
         <v>83</v>
-      </c>
-      <c r="C21" s="179"/>
-      <c r="D21" s="166" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="167"/>
-      <c r="F21" s="166" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="167"/>
-      <c r="H21" s="129" t="s">
-        <v>86</v>
       </c>
       <c r="I21" s="130"/>
       <c r="J21" s="49"/>
@@ -3371,37 +3589,37 @@
     </row>
     <row r="22" spans="1:11" ht="10.5" customHeight="1">
       <c r="A22" s="120" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="180"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="169"/>
+        <v>31</v>
+      </c>
+      <c r="B22" s="168"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="152"/>
       <c r="H22" s="120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I22" s="120" t="s">
         <v>1</v>
       </c>
       <c r="J22" s="120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22" s="127"/>
     </row>
     <row r="23" spans="1:11" ht="10.5" customHeight="1">
       <c r="A23" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="180"/>
-      <c r="C23" s="181"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="169"/>
+        <v>76</v>
+      </c>
+      <c r="B23" s="168"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="152"/>
       <c r="H23" s="51" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="I23" s="51"/>
       <c r="J23" s="49"/>
@@ -3411,17 +3629,17 @@
       <c r="A24" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="180"/>
-      <c r="C24" s="181"/>
-      <c r="D24" s="168"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="169"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="152"/>
       <c r="H24" s="120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I24" s="120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J24" s="120"/>
       <c r="K24" s="127"/>
@@ -3430,696 +3648,880 @@
       <c r="A25" s="52">
         <v>311</v>
       </c>
-      <c r="B25" s="182"/>
-      <c r="C25" s="183"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="54" t="s">
-        <v>40</v>
+      <c r="B25" s="170"/>
+      <c r="C25" s="171"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="54">
+        <v>43355</v>
       </c>
       <c r="I25" s="54"/>
       <c r="J25" s="55"/>
       <c r="K25" s="128"/>
     </row>
-    <row r="26" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A26" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="124" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="125"/>
-      <c r="D26" s="124" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="125"/>
-      <c r="F26" s="124" t="s">
+    <row r="26" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A26" s="201" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="137"/>
+      <c r="D26" s="136" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="208"/>
+      <c r="F26" s="136" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="208"/>
+      <c r="H26" s="131" t="s">
         <v>28</v>
-      </c>
-      <c r="G26" s="125"/>
-      <c r="H26" s="131" t="s">
-        <v>29</v>
       </c>
       <c r="I26" s="131"/>
       <c r="J26" s="131" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="57" t="s">
+    </row>
+    <row r="27" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A27" s="191">
+        <v>3</v>
+      </c>
+      <c r="B27" s="157" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="203"/>
+      <c r="D27" s="182" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="203"/>
+      <c r="F27" s="182" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="203"/>
+      <c r="H27" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="54"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="209"/>
+    </row>
+    <row r="28" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A28" s="201" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A27" s="49">
-        <v>4</v>
-      </c>
-      <c r="B27" s="178" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="179"/>
-      <c r="D27" s="166" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="167"/>
-      <c r="F27" s="166" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="167"/>
-      <c r="H27" s="132" t="s">
-        <v>68</v>
-      </c>
-      <c r="I27" s="133"/>
-      <c r="J27" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="126"/>
-    </row>
-    <row r="28" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A28" s="131" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="180"/>
-      <c r="C28" s="181"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="169"/>
+      <c r="B28" s="204"/>
+      <c r="C28" s="205"/>
+      <c r="D28" s="204"/>
+      <c r="E28" s="205"/>
+      <c r="F28" s="204"/>
+      <c r="G28" s="205"/>
       <c r="H28" s="131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I28" s="131" t="s">
         <v>1</v>
       </c>
       <c r="J28" s="131" t="s">
-        <v>38</v>
-      </c>
-      <c r="K28" s="127"/>
+        <v>37</v>
+      </c>
+      <c r="K28" s="210"/>
     </row>
     <row r="29" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A29" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="180"/>
-      <c r="C29" s="181"/>
-      <c r="D29" s="168"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="169"/>
-      <c r="H29" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="I29" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29" s="49" t="s">
+      <c r="A29" s="191" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="204"/>
+      <c r="C29" s="205"/>
+      <c r="D29" s="204"/>
+      <c r="E29" s="205"/>
+      <c r="F29" s="204"/>
+      <c r="G29" s="205"/>
+      <c r="H29" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="54"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="210"/>
+    </row>
+    <row r="30" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A30" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="204"/>
+      <c r="C30" s="205"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="205"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="205"/>
+      <c r="H30" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="127"/>
-    </row>
-    <row r="30" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A30" s="131" t="s">
+      <c r="I30" s="131" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="202"/>
+      <c r="K30" s="210"/>
+    </row>
+    <row r="31" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A31" s="191">
+        <v>411</v>
+      </c>
+      <c r="B31" s="206"/>
+      <c r="C31" s="207"/>
+      <c r="D31" s="206"/>
+      <c r="E31" s="207"/>
+      <c r="F31" s="206"/>
+      <c r="G31" s="207"/>
+      <c r="H31" s="54">
+        <v>43355</v>
+      </c>
+      <c r="I31" s="54"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="211"/>
+    </row>
+    <row r="32" spans="1:11" s="200" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A32" s="195" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="196" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="197"/>
+      <c r="D32" s="196" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="197"/>
+      <c r="F32" s="196" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="197"/>
+      <c r="H32" s="198" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="198"/>
+      <c r="J32" s="198" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="199" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A33" s="49">
+        <v>5</v>
+      </c>
+      <c r="B33" s="166" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="167"/>
+      <c r="D33" s="149" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="150"/>
+      <c r="F33" s="149" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="150"/>
+      <c r="H33" s="132" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" s="133"/>
+      <c r="J33" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" s="126"/>
+    </row>
+    <row r="34" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A34" s="198" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="168"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="198" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="198" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="198" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="127"/>
+    </row>
+    <row r="35" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A35" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="168"/>
+      <c r="C35" s="169"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="I35" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="J35" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="K35" s="127"/>
+    </row>
+    <row r="36" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A36" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="180"/>
-      <c r="C30" s="181"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="169"/>
-      <c r="H30" s="131" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" s="131" t="s">
-        <v>33</v>
-      </c>
-      <c r="J30" s="131"/>
-      <c r="K30" s="127"/>
-    </row>
-    <row r="31" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A31" s="52">
-        <v>411</v>
-      </c>
-      <c r="B31" s="182"/>
-      <c r="C31" s="183"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="171"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="I31" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="J31" s="49"/>
-      <c r="K31" s="127"/>
-    </row>
-    <row r="32" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A32" s="101" t="s">
+      <c r="B36" s="168"/>
+      <c r="C36" s="169"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="198" t="s">
+        <v>36</v>
+      </c>
+      <c r="I36" s="198" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="198"/>
+      <c r="K36" s="127"/>
+    </row>
+    <row r="37" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A37" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="170"/>
+      <c r="C37" s="171"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="54">
+        <v>43355</v>
+      </c>
+      <c r="I37" s="54">
+        <v>43355</v>
+      </c>
+      <c r="J37" s="49"/>
+      <c r="K37" s="127"/>
+    </row>
+    <row r="38" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A38" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="174" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="175"/>
+      <c r="D38" s="175"/>
+      <c r="E38" s="175"/>
+      <c r="F38" s="175"/>
+      <c r="G38" s="175"/>
+      <c r="H38" s="175"/>
+      <c r="I38" s="175"/>
+      <c r="J38" s="175"/>
+      <c r="K38" s="176"/>
+    </row>
+    <row r="39" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A39" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="175" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="176"/>
-      <c r="D32" s="176"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="176"/>
-      <c r="G32" s="176"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="176"/>
-      <c r="K32" s="177"/>
-    </row>
-    <row r="33" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A33" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="172" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="173"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="173"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="173"/>
-      <c r="K33" s="174"/>
-    </row>
-    <row r="34" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A34" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="145" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="146"/>
-      <c r="D34" s="145" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="146"/>
-      <c r="F34" s="145" t="s">
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
+      <c r="E39" s="164"/>
+      <c r="F39" s="164"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="164"/>
+      <c r="I39" s="164"/>
+      <c r="J39" s="164"/>
+      <c r="K39" s="165"/>
+    </row>
+    <row r="40" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A40" s="131" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="156"/>
+      <c r="D40" s="155" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="156"/>
+      <c r="F40" s="155" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="156"/>
+      <c r="H40" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="146"/>
-      <c r="H34" s="145" t="s">
+      <c r="I40" s="156"/>
+      <c r="J40" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="I34" s="146"/>
-      <c r="J34" s="131" t="s">
+      <c r="K40" s="131" t="s">
         <v>30</v>
-      </c>
-      <c r="K34" s="131" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A35" s="49">
-        <v>5</v>
-      </c>
-      <c r="B35" s="139" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="140"/>
-      <c r="D35" s="147" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="148"/>
-      <c r="F35" s="147" t="s">
-        <v>71</v>
-      </c>
-      <c r="G35" s="148"/>
-      <c r="H35" s="153" t="s">
-        <v>68</v>
-      </c>
-      <c r="I35" s="154"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="157"/>
-    </row>
-    <row r="36" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A36" s="131" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="141"/>
-      <c r="C36" s="142"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="131" t="s">
-        <v>34</v>
-      </c>
-      <c r="I36" s="131" t="s">
-        <v>1</v>
-      </c>
-      <c r="J36" s="131" t="s">
-        <v>38</v>
-      </c>
-      <c r="K36" s="158"/>
-    </row>
-    <row r="37" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A37" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="142"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="I37" s="51"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="158"/>
-    </row>
-    <row r="38" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A38" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="141"/>
-      <c r="C38" s="142"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="131" t="s">
-        <v>37</v>
-      </c>
-      <c r="I38" s="131"/>
-      <c r="J38" s="131"/>
-      <c r="K38" s="158"/>
-    </row>
-    <row r="39" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A39" s="52">
-        <v>922</v>
-      </c>
-      <c r="B39" s="143"/>
-      <c r="C39" s="144"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="152"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="152"/>
-      <c r="H39" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="I39" s="51"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="159"/>
-    </row>
-    <row r="40" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A40" s="120">
-        <v>511</v>
-      </c>
-      <c r="B40" s="136" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="137"/>
-      <c r="D40" s="136" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="137"/>
-      <c r="F40" s="136" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" s="137"/>
-      <c r="H40" s="136" t="s">
-        <v>29</v>
-      </c>
-      <c r="I40" s="137"/>
-      <c r="J40" s="120" t="s">
-        <v>30</v>
-      </c>
-      <c r="K40" s="123" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="10.5" customHeight="1">
       <c r="A41" s="49">
         <v>6</v>
       </c>
-      <c r="B41" s="139" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="140"/>
-      <c r="D41" s="147" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="148"/>
-      <c r="F41" s="147" t="s">
-        <v>75</v>
-      </c>
-      <c r="G41" s="148"/>
-      <c r="H41" s="153" t="s">
-        <v>35</v>
-      </c>
-      <c r="I41" s="154"/>
-      <c r="J41" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="K41" s="157"/>
+      <c r="B41" s="157" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="158"/>
+      <c r="D41" s="182" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="183"/>
+      <c r="F41" s="182" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="183"/>
+      <c r="H41" s="177" t="s">
+        <v>66</v>
+      </c>
+      <c r="I41" s="178"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="179"/>
     </row>
     <row r="42" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A42" s="120" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="141"/>
-      <c r="C42" s="142"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="120" t="s">
-        <v>34</v>
-      </c>
-      <c r="I42" s="120" t="s">
+      <c r="A42" s="131" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="159"/>
+      <c r="C42" s="160"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="185"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="185"/>
+      <c r="H42" s="131" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="J42" s="120" t="s">
-        <v>38</v>
-      </c>
-      <c r="K42" s="158"/>
+      <c r="J42" s="131" t="s">
+        <v>37</v>
+      </c>
+      <c r="K42" s="180"/>
     </row>
     <row r="43" spans="1:11" ht="10.5" customHeight="1">
       <c r="A43" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="141"/>
-      <c r="C43" s="142"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="150"/>
+        <v>79</v>
+      </c>
+      <c r="B43" s="159"/>
+      <c r="C43" s="160"/>
+      <c r="D43" s="184"/>
+      <c r="E43" s="185"/>
+      <c r="F43" s="184"/>
+      <c r="G43" s="185"/>
       <c r="H43" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="I43" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="J43" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="I43" s="51"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="180"/>
+    </row>
+    <row r="44" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A44" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="159"/>
+      <c r="C44" s="160"/>
+      <c r="D44" s="184"/>
+      <c r="E44" s="185"/>
+      <c r="F44" s="184"/>
+      <c r="G44" s="185"/>
+      <c r="H44" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="K43" s="158"/>
-    </row>
-    <row r="44" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A44" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="141"/>
-      <c r="C44" s="142"/>
-      <c r="D44" s="149"/>
-      <c r="E44" s="150"/>
-      <c r="F44" s="149"/>
-      <c r="G44" s="150"/>
-      <c r="H44" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="I44" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="J44" s="47"/>
-      <c r="K44" s="158"/>
+      <c r="I44" s="131"/>
+      <c r="J44" s="131"/>
+      <c r="K44" s="180"/>
     </row>
     <row r="45" spans="1:11" ht="10.5" customHeight="1">
       <c r="A45" s="52">
         <v>611</v>
       </c>
-      <c r="B45" s="143"/>
-      <c r="C45" s="144"/>
-      <c r="D45" s="151"/>
-      <c r="E45" s="152"/>
-      <c r="F45" s="151"/>
-      <c r="G45" s="152"/>
-      <c r="H45" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="I45" s="51" t="s">
-        <v>2</v>
-      </c>
+      <c r="B45" s="161"/>
+      <c r="C45" s="162"/>
+      <c r="D45" s="186"/>
+      <c r="E45" s="187"/>
+      <c r="F45" s="186"/>
+      <c r="G45" s="187"/>
+      <c r="H45" s="54">
+        <v>43355</v>
+      </c>
+      <c r="I45" s="51"/>
       <c r="J45" s="49"/>
-      <c r="K45" s="159"/>
+      <c r="K45" s="181"/>
     </row>
     <row r="46" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="120">
+        <v>511</v>
+      </c>
+      <c r="B46" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="136" t="s">
+      <c r="C46" s="173"/>
+      <c r="D46" s="172" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="173"/>
+      <c r="F46" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="137"/>
-      <c r="D46" s="136" t="s">
-        <v>60</v>
-      </c>
-      <c r="E46" s="137"/>
-      <c r="F46" s="136" t="s">
+      <c r="G46" s="173"/>
+      <c r="H46" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="G46" s="137"/>
-      <c r="H46" s="138" t="s">
+      <c r="I46" s="173"/>
+      <c r="J46" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="I46" s="138"/>
-      <c r="J46" s="47" t="s">
+      <c r="K46" s="123" t="s">
         <v>30</v>
-      </c>
-      <c r="K46" s="58" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="10.5" customHeight="1">
       <c r="A47" s="49">
         <v>7</v>
       </c>
-      <c r="B47" s="139" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="140"/>
-      <c r="D47" s="147" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="148"/>
-      <c r="F47" s="147" t="s">
-        <v>75</v>
-      </c>
-      <c r="G47" s="148"/>
-      <c r="H47" s="155" t="s">
-        <v>35</v>
-      </c>
-      <c r="I47" s="156"/>
+      <c r="B47" s="157" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="158"/>
+      <c r="D47" s="182" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="183"/>
+      <c r="F47" s="182" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" s="183"/>
+      <c r="H47" s="177" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" s="178"/>
       <c r="J47" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="K47" s="157"/>
+        <v>43</v>
+      </c>
+      <c r="K47" s="179"/>
     </row>
     <row r="48" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A48" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="141"/>
-      <c r="C48" s="142"/>
-      <c r="D48" s="149"/>
-      <c r="E48" s="150"/>
-      <c r="F48" s="149"/>
-      <c r="G48" s="150"/>
-      <c r="H48" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="I48" s="47" t="s">
+      <c r="A48" s="120" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="159"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="184"/>
+      <c r="E48" s="185"/>
+      <c r="F48" s="184"/>
+      <c r="G48" s="185"/>
+      <c r="H48" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="I48" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="J48" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="K48" s="158"/>
+      <c r="J48" s="120" t="s">
+        <v>37</v>
+      </c>
+      <c r="K48" s="180"/>
     </row>
     <row r="49" spans="1:11" ht="10.5" customHeight="1">
       <c r="A49" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" s="141"/>
-      <c r="C49" s="142"/>
-      <c r="D49" s="149"/>
-      <c r="E49" s="150"/>
-      <c r="F49" s="149"/>
-      <c r="G49" s="150"/>
+        <v>80</v>
+      </c>
+      <c r="B49" s="159"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="184"/>
+      <c r="E49" s="185"/>
+      <c r="F49" s="184"/>
+      <c r="G49" s="185"/>
       <c r="H49" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I49" s="51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J49" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="K49" s="158"/>
+        <v>35</v>
+      </c>
+      <c r="K49" s="180"/>
     </row>
     <row r="50" spans="1:11" ht="10.5" customHeight="1">
       <c r="A50" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="141"/>
-      <c r="C50" s="142"/>
-      <c r="D50" s="149"/>
-      <c r="E50" s="150"/>
-      <c r="F50" s="149"/>
-      <c r="G50" s="150"/>
+      <c r="B50" s="159"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="184"/>
+      <c r="E50" s="185"/>
+      <c r="F50" s="184"/>
+      <c r="G50" s="185"/>
       <c r="H50" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I50" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J50" s="47"/>
-      <c r="K50" s="158"/>
+      <c r="K50" s="180"/>
     </row>
     <row r="51" spans="1:11" ht="10.5" customHeight="1">
       <c r="A51" s="52">
         <v>711</v>
       </c>
-      <c r="B51" s="143"/>
-      <c r="C51" s="144"/>
-      <c r="D51" s="151"/>
-      <c r="E51" s="152"/>
-      <c r="F51" s="151"/>
-      <c r="G51" s="152"/>
-      <c r="H51" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="I51" s="51" t="s">
-        <v>2</v>
+      <c r="B51" s="161"/>
+      <c r="C51" s="162"/>
+      <c r="D51" s="186"/>
+      <c r="E51" s="187"/>
+      <c r="F51" s="186"/>
+      <c r="G51" s="187"/>
+      <c r="H51" s="54">
+        <v>43355</v>
+      </c>
+      <c r="I51" s="54">
+        <v>43355</v>
       </c>
       <c r="J51" s="49"/>
-      <c r="K51" s="159"/>
-    </row>
-    <row r="52" spans="1:11" s="60" customFormat="1">
-      <c r="A52" s="64"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="64"/>
-      <c r="K52" s="64"/>
-    </row>
-    <row r="53" spans="1:11" s="60" customFormat="1">
-      <c r="A53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="64"/>
-      <c r="K53" s="64"/>
-    </row>
-    <row r="54" spans="1:11" s="60" customFormat="1">
-      <c r="A54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="64"/>
-    </row>
-    <row r="55" spans="1:11" s="60" customFormat="1">
-      <c r="A55" s="64"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="64"/>
-    </row>
-    <row r="56" spans="1:11" s="60" customFormat="1">
-      <c r="A56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="64"/>
-      <c r="K56" s="64"/>
-    </row>
-    <row r="57" spans="1:11" s="60" customFormat="1">
-      <c r="A57" s="64"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="64"/>
-      <c r="J57" s="64"/>
-      <c r="K57" s="64"/>
-    </row>
-    <row r="58" spans="1:11" s="60" customFormat="1">
-      <c r="A58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="64"/>
-      <c r="K58" s="64"/>
-    </row>
-    <row r="59" spans="1:11" s="60" customFormat="1">
-      <c r="A59" s="64"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="64"/>
-      <c r="K59" s="64"/>
-    </row>
-    <row r="60" spans="1:11" s="60" customFormat="1">
-      <c r="A60" s="64"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="64"/>
-      <c r="J60" s="64"/>
-      <c r="K60" s="64"/>
-    </row>
-    <row r="61" spans="1:11" s="60" customFormat="1">
-      <c r="A61" s="64"/>
-      <c r="H61" s="64"/>
-      <c r="I61" s="64"/>
-      <c r="J61" s="64"/>
-      <c r="K61" s="64"/>
-    </row>
-    <row r="62" spans="1:11" s="60" customFormat="1">
-      <c r="A62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="64"/>
-      <c r="K62" s="64"/>
-    </row>
-    <row r="63" spans="1:11" s="60" customFormat="1">
-      <c r="A63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="64"/>
-      <c r="J63" s="64"/>
-      <c r="K63" s="64"/>
-    </row>
-    <row r="64" spans="1:11" s="60" customFormat="1">
-      <c r="A64" s="64"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="64"/>
-      <c r="J64" s="64"/>
-      <c r="K64" s="64"/>
-    </row>
-    <row r="65" spans="1:11" s="60" customFormat="1">
-      <c r="A65" s="64"/>
-      <c r="H65" s="64"/>
-      <c r="I65" s="64"/>
-      <c r="J65" s="64"/>
-      <c r="K65" s="64"/>
-    </row>
-    <row r="66" spans="1:11" s="60" customFormat="1">
-      <c r="A66" s="64"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="64"/>
-      <c r="J66" s="64"/>
-      <c r="K66" s="64"/>
-    </row>
-    <row r="67" spans="1:11" s="60" customFormat="1">
-      <c r="A67" s="64"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="64"/>
-      <c r="J67" s="64"/>
-      <c r="K67" s="64"/>
-    </row>
-    <row r="68" spans="1:11" s="60" customFormat="1">
-      <c r="A68" s="64"/>
-      <c r="H68" s="64"/>
-      <c r="I68" s="64"/>
-      <c r="J68" s="64"/>
-      <c r="K68" s="64"/>
-    </row>
-    <row r="69" spans="1:11" s="60" customFormat="1">
-      <c r="A69" s="64"/>
-      <c r="H69" s="64"/>
-      <c r="I69" s="64"/>
-      <c r="J69" s="64"/>
-      <c r="K69" s="64"/>
+      <c r="K51" s="181"/>
+    </row>
+    <row r="52" spans="1:11" s="216" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A52" s="212">
+        <v>811</v>
+      </c>
+      <c r="B52" s="213" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="214"/>
+      <c r="D52" s="213" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="214"/>
+      <c r="F52" s="213" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="214"/>
+      <c r="H52" s="213" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" s="214"/>
+      <c r="J52" s="212" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="215" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A53" s="52"/>
+      <c r="B53" s="134"/>
+      <c r="C53" s="135"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="139"/>
+      <c r="F53" s="138"/>
+      <c r="G53" s="139"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="146"/>
+    </row>
+    <row r="54" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A54" s="217"/>
+      <c r="B54" s="134"/>
+      <c r="C54" s="135"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="139"/>
+      <c r="F54" s="138"/>
+      <c r="G54" s="139"/>
+      <c r="H54" s="218"/>
+      <c r="I54" s="218"/>
+      <c r="J54" s="219"/>
+      <c r="K54" s="146"/>
+    </row>
+    <row r="55" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A55" s="52"/>
+      <c r="B55" s="134"/>
+      <c r="C55" s="135"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="139"/>
+      <c r="F55" s="138"/>
+      <c r="G55" s="139"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="146"/>
+    </row>
+    <row r="56" spans="1:11" s="223" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A56" s="217"/>
+      <c r="B56" s="224"/>
+      <c r="C56" s="225"/>
+      <c r="D56" s="226"/>
+      <c r="E56" s="227"/>
+      <c r="F56" s="226"/>
+      <c r="G56" s="227"/>
+      <c r="H56" s="218"/>
+      <c r="I56" s="218"/>
+      <c r="J56" s="219"/>
+      <c r="K56" s="228"/>
+    </row>
+    <row r="57" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A57" s="222"/>
+      <c r="B57" s="134"/>
+      <c r="C57" s="135"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="139"/>
+      <c r="F57" s="138"/>
+      <c r="G57" s="139"/>
+      <c r="H57" s="54">
+        <v>43355</v>
+      </c>
+      <c r="I57" s="220"/>
+      <c r="J57" s="221"/>
+      <c r="K57" s="146"/>
+    </row>
+    <row r="58" spans="1:11" s="194" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A58" s="193">
+        <v>811</v>
+      </c>
+      <c r="B58" s="229" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="230"/>
+      <c r="D58" s="229" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="230"/>
+      <c r="F58" s="229" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" s="230"/>
+      <c r="H58" s="229" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" s="230"/>
+      <c r="J58" s="193" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58" s="192" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A59" s="222"/>
+      <c r="B59" s="134"/>
+      <c r="C59" s="135"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="139"/>
+      <c r="F59" s="138"/>
+      <c r="G59" s="139"/>
+      <c r="H59" s="220"/>
+      <c r="I59" s="220"/>
+      <c r="J59" s="221"/>
+      <c r="K59" s="146"/>
+    </row>
+    <row r="60" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A60" s="222"/>
+      <c r="B60" s="134"/>
+      <c r="C60" s="135"/>
+      <c r="D60" s="138"/>
+      <c r="E60" s="139"/>
+      <c r="F60" s="138"/>
+      <c r="G60" s="139"/>
+      <c r="H60" s="220"/>
+      <c r="I60" s="220"/>
+      <c r="J60" s="221"/>
+      <c r="K60" s="146"/>
+    </row>
+    <row r="61" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A61" s="222"/>
+      <c r="B61" s="134"/>
+      <c r="C61" s="135"/>
+      <c r="D61" s="138"/>
+      <c r="E61" s="139"/>
+      <c r="F61" s="138"/>
+      <c r="G61" s="139"/>
+      <c r="H61" s="220"/>
+      <c r="I61" s="220"/>
+      <c r="J61" s="221"/>
+      <c r="K61" s="146"/>
+    </row>
+    <row r="62" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A62" s="222"/>
+      <c r="B62" s="134"/>
+      <c r="C62" s="135"/>
+      <c r="D62" s="138"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="138"/>
+      <c r="G62" s="139"/>
+      <c r="H62" s="220"/>
+      <c r="I62" s="220"/>
+      <c r="J62" s="221"/>
+      <c r="K62" s="146"/>
+    </row>
+    <row r="63" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A63" s="52"/>
+      <c r="B63" s="134"/>
+      <c r="C63" s="135"/>
+      <c r="D63" s="138"/>
+      <c r="E63" s="139"/>
+      <c r="F63" s="138"/>
+      <c r="G63" s="139"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="146"/>
+    </row>
+    <row r="64" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A64" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="172" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="173"/>
+      <c r="D64" s="172" t="s">
+        <v>58</v>
+      </c>
+      <c r="E64" s="173"/>
+      <c r="F64" s="172" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" s="173"/>
+      <c r="H64" s="190" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" s="190"/>
+      <c r="J64" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="K64" s="58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A65" s="49">
+        <v>10</v>
+      </c>
+      <c r="B65" s="157" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="158"/>
+      <c r="D65" s="182" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" s="183"/>
+      <c r="F65" s="182" t="s">
+        <v>73</v>
+      </c>
+      <c r="G65" s="183"/>
+      <c r="H65" s="188" t="s">
+        <v>34</v>
+      </c>
+      <c r="I65" s="189"/>
+      <c r="J65" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="K65" s="179"/>
+    </row>
+    <row r="66" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A66" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="159"/>
+      <c r="C66" s="160"/>
+      <c r="D66" s="184"/>
+      <c r="E66" s="185"/>
+      <c r="F66" s="184"/>
+      <c r="G66" s="185"/>
+      <c r="H66" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="I66" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="J66" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="K66" s="180"/>
+    </row>
+    <row r="67" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A67" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" s="159"/>
+      <c r="C67" s="160"/>
+      <c r="D67" s="184"/>
+      <c r="E67" s="185"/>
+      <c r="F67" s="184"/>
+      <c r="G67" s="185"/>
+      <c r="H67" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="I67" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="J67" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="K67" s="180"/>
+    </row>
+    <row r="68" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A68" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="159"/>
+      <c r="C68" s="160"/>
+      <c r="D68" s="184"/>
+      <c r="E68" s="185"/>
+      <c r="F68" s="184"/>
+      <c r="G68" s="185"/>
+      <c r="H68" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="I68" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="J68" s="47"/>
+      <c r="K68" s="180"/>
+    </row>
+    <row r="69" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A69" s="52">
+        <v>1011</v>
+      </c>
+      <c r="B69" s="161"/>
+      <c r="C69" s="162"/>
+      <c r="D69" s="186"/>
+      <c r="E69" s="187"/>
+      <c r="F69" s="186"/>
+      <c r="G69" s="187"/>
+      <c r="H69" s="51">
+        <v>43355</v>
+      </c>
+      <c r="I69" s="51">
+        <v>43355</v>
+      </c>
+      <c r="J69" s="49"/>
+      <c r="K69" s="181"/>
     </row>
     <row r="70" spans="1:11" s="60" customFormat="1">
       <c r="A70" s="64"/>
@@ -4394,56 +4796,194 @@
       <c r="J108" s="64"/>
       <c r="K108" s="64"/>
     </row>
+    <row r="109" spans="1:11" s="60" customFormat="1">
+      <c r="A109" s="64"/>
+      <c r="H109" s="64"/>
+      <c r="I109" s="64"/>
+      <c r="J109" s="64"/>
+      <c r="K109" s="64"/>
+    </row>
+    <row r="110" spans="1:11" s="60" customFormat="1">
+      <c r="A110" s="64"/>
+      <c r="H110" s="64"/>
+      <c r="I110" s="64"/>
+      <c r="J110" s="64"/>
+      <c r="K110" s="64"/>
+    </row>
+    <row r="111" spans="1:11" s="60" customFormat="1">
+      <c r="A111" s="64"/>
+      <c r="H111" s="64"/>
+      <c r="I111" s="64"/>
+      <c r="J111" s="64"/>
+      <c r="K111" s="64"/>
+    </row>
+    <row r="112" spans="1:11" s="60" customFormat="1">
+      <c r="A112" s="64"/>
+      <c r="H112" s="64"/>
+      <c r="I112" s="64"/>
+      <c r="J112" s="64"/>
+      <c r="K112" s="64"/>
+    </row>
+    <row r="113" spans="1:11" s="60" customFormat="1">
+      <c r="A113" s="64"/>
+      <c r="H113" s="64"/>
+      <c r="I113" s="64"/>
+      <c r="J113" s="64"/>
+      <c r="K113" s="64"/>
+    </row>
+    <row r="114" spans="1:11" s="60" customFormat="1">
+      <c r="A114" s="64"/>
+      <c r="H114" s="64"/>
+      <c r="I114" s="64"/>
+      <c r="J114" s="64"/>
+      <c r="K114" s="64"/>
+    </row>
+    <row r="115" spans="1:11" s="60" customFormat="1">
+      <c r="A115" s="64"/>
+      <c r="H115" s="64"/>
+      <c r="I115" s="64"/>
+      <c r="J115" s="64"/>
+      <c r="K115" s="64"/>
+    </row>
+    <row r="116" spans="1:11" s="60" customFormat="1">
+      <c r="A116" s="64"/>
+      <c r="H116" s="64"/>
+      <c r="I116" s="64"/>
+      <c r="J116" s="64"/>
+      <c r="K116" s="64"/>
+    </row>
+    <row r="117" spans="1:11" s="60" customFormat="1">
+      <c r="A117" s="64"/>
+      <c r="H117" s="64"/>
+      <c r="I117" s="64"/>
+      <c r="J117" s="64"/>
+      <c r="K117" s="64"/>
+    </row>
+    <row r="118" spans="1:11" s="60" customFormat="1">
+      <c r="A118" s="64"/>
+      <c r="H118" s="64"/>
+      <c r="I118" s="64"/>
+      <c r="J118" s="64"/>
+      <c r="K118" s="64"/>
+    </row>
+    <row r="119" spans="1:11" s="60" customFormat="1">
+      <c r="A119" s="64"/>
+      <c r="H119" s="64"/>
+      <c r="I119" s="64"/>
+      <c r="J119" s="64"/>
+      <c r="K119" s="64"/>
+    </row>
+    <row r="120" spans="1:11" s="60" customFormat="1">
+      <c r="A120" s="64"/>
+      <c r="H120" s="64"/>
+      <c r="I120" s="64"/>
+      <c r="J120" s="64"/>
+      <c r="K120" s="64"/>
+    </row>
+    <row r="121" spans="1:11" s="60" customFormat="1">
+      <c r="A121" s="64"/>
+      <c r="H121" s="64"/>
+      <c r="I121" s="64"/>
+      <c r="J121" s="64"/>
+      <c r="K121" s="64"/>
+    </row>
+    <row r="122" spans="1:11" s="60" customFormat="1">
+      <c r="A122" s="64"/>
+      <c r="H122" s="64"/>
+      <c r="I122" s="64"/>
+      <c r="J122" s="64"/>
+      <c r="K122" s="64"/>
+    </row>
+    <row r="123" spans="1:11" s="60" customFormat="1">
+      <c r="A123" s="64"/>
+      <c r="H123" s="64"/>
+      <c r="I123" s="64"/>
+      <c r="J123" s="64"/>
+      <c r="K123" s="64"/>
+    </row>
+    <row r="124" spans="1:11" s="60" customFormat="1">
+      <c r="A124" s="64"/>
+      <c r="H124" s="64"/>
+      <c r="I124" s="64"/>
+      <c r="J124" s="64"/>
+      <c r="K124" s="64"/>
+    </row>
+    <row r="125" spans="1:11" s="60" customFormat="1">
+      <c r="A125" s="64"/>
+      <c r="H125" s="64"/>
+      <c r="I125" s="64"/>
+      <c r="J125" s="64"/>
+      <c r="K125" s="64"/>
+    </row>
+    <row r="126" spans="1:11" s="60" customFormat="1">
+      <c r="A126" s="64"/>
+      <c r="H126" s="64"/>
+      <c r="I126" s="64"/>
+      <c r="J126" s="64"/>
+      <c r="K126" s="64"/>
+    </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="52">
+    <mergeCell ref="B65:C69"/>
+    <mergeCell ref="D47:E51"/>
+    <mergeCell ref="D65:E69"/>
+    <mergeCell ref="F65:G69"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="B47:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="K65:K69"/>
+    <mergeCell ref="F47:G51"/>
+    <mergeCell ref="K47:K51"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="B9:C13"/>
+    <mergeCell ref="D9:E13"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="K41:K45"/>
+    <mergeCell ref="D41:E45"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B27:C31"/>
+    <mergeCell ref="D27:E31"/>
+    <mergeCell ref="F27:G31"/>
+    <mergeCell ref="K27:K31"/>
     <mergeCell ref="F15:G19"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C39"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C45"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="B39:K39"/>
     <mergeCell ref="B21:C25"/>
     <mergeCell ref="D21:E25"/>
     <mergeCell ref="D15:E19"/>
     <mergeCell ref="B15:C19"/>
     <mergeCell ref="F21:G25"/>
-    <mergeCell ref="F27:G31"/>
-    <mergeCell ref="D27:E31"/>
-    <mergeCell ref="B27:C31"/>
-    <mergeCell ref="B9:C13"/>
-    <mergeCell ref="D9:E13"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="K35:K39"/>
-    <mergeCell ref="D35:E39"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G39"/>
-    <mergeCell ref="K47:K51"/>
-    <mergeCell ref="F41:G45"/>
-    <mergeCell ref="K41:K45"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="B47:C51"/>
-    <mergeCell ref="D41:E45"/>
-    <mergeCell ref="D47:E51"/>
-    <mergeCell ref="F47:G51"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B41:C45"/>
+    <mergeCell ref="F33:G37"/>
+    <mergeCell ref="D33:E37"/>
+    <mergeCell ref="B33:C37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H47:I47">
+  <conditionalFormatting sqref="H65:I65">
     <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>"Not OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46:I46">
+  <conditionalFormatting sqref="H64:I64">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Not OK"</formula>
     </cfRule>

--- a/Quantriduanexcel.xlsx
+++ b/Quantriduanexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRUNG DONG\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A20908-137A-44CC-A8DC-E4DC984D9145}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D749A85-6BA1-4B9A-B134-8C19FC4B77AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,19 +169,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="I44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Ngày test lại, trong trường hợp lần test trước có lỗi</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
@@ -195,12 +182,64 @@
         </r>
       </text>
     </comment>
+    <comment ref="H54" authorId="0" shapeId="0" xr:uid="{FBFEFAD4-FF29-46F8-8941-A998609022BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Người thực hiện test</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I54" authorId="0" shapeId="0" xr:uid="{01AEB04F-3F60-4185-9D7E-FF52D1F78820}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Người chịu trách nhiệm về lỗi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J54" authorId="0" shapeId="0" xr:uid="{27CD47D7-365D-4064-AF35-10AB83295D7A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Người sửa lỗi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H56" authorId="0" shapeId="0" xr:uid="{44891ADE-2D11-49D5-ACAE-3803D8CDE3C5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Ngày thực hiện test</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="96">
   <si>
     <t>Online ID</t>
   </si>
@@ -1027,7 +1066,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1346,24 +1385,12 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1380,9 +1407,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1599,12 +1623,6 @@
     <xf numFmtId="1" fontId="21" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="21" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1617,26 +1635,14 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2192,13 +2198,13 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="O6" s="147" t="s">
+      <c r="O6" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="147"/>
-      <c r="Q6" s="147"/>
-      <c r="R6" s="147"/>
-      <c r="S6" s="147"/>
+      <c r="P6" s="142"/>
+      <c r="Q6" s="142"/>
+      <c r="R6" s="142"/>
+      <c r="S6" s="142"/>
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
@@ -2208,11 +2214,11 @@
       <c r="B7" s="22"/>
       <c r="E7" s="4"/>
       <c r="G7" s="21"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="147"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="147"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="142"/>
+      <c r="Q7" s="142"/>
+      <c r="R7" s="142"/>
+      <c r="S7" s="142"/>
       <c r="X7" s="23"/>
     </row>
     <row r="8" spans="1:24" s="24" customFormat="1" ht="14.25" customHeight="1">
@@ -2267,12 +2273,12 @@
       <c r="D11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="148">
+      <c r="E11" s="143">
         <f ca="1">TODAY()</f>
         <v>43443</v>
       </c>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
       <c r="H11" s="74"/>
       <c r="L11" s="33" t="s">
         <v>16</v>
@@ -3132,8 +3138,8 @@
   </sheetPr>
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A45" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3312,18 +3318,18 @@
       <c r="A9" s="49">
         <v>1</v>
       </c>
-      <c r="B9" s="166" t="s">
+      <c r="B9" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="167"/>
-      <c r="D9" s="149" t="s">
+      <c r="C9" s="162"/>
+      <c r="D9" s="144" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="150"/>
-      <c r="F9" s="140" t="s">
+      <c r="E9" s="145"/>
+      <c r="F9" s="136" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="141"/>
+      <c r="G9" s="137"/>
       <c r="H9" s="129" t="s">
         <v>40</v>
       </c>
@@ -3335,12 +3341,12 @@
       <c r="A10" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="168"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="143"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="139"/>
       <c r="H10" s="120" t="s">
         <v>33</v>
       </c>
@@ -3356,12 +3362,12 @@
       <c r="A11" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="168"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="143"/>
+      <c r="B11" s="163"/>
+      <c r="C11" s="164"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="139"/>
       <c r="H11" s="51" t="s">
         <v>90</v>
       </c>
@@ -3373,12 +3379,12 @@
       <c r="A12" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="168"/>
-      <c r="C12" s="169"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="143"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="139"/>
       <c r="H12" s="120" t="s">
         <v>36</v>
       </c>
@@ -3392,12 +3398,12 @@
       <c r="A13" s="52">
         <v>111</v>
       </c>
-      <c r="B13" s="170"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="145"/>
+      <c r="B13" s="165"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="141"/>
       <c r="H13" s="54">
         <v>43355</v>
       </c>
@@ -3436,18 +3442,18 @@
       <c r="A15" s="49">
         <v>2</v>
       </c>
-      <c r="B15" s="166" t="s">
+      <c r="B15" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="167"/>
-      <c r="D15" s="149" t="s">
+      <c r="C15" s="162"/>
+      <c r="D15" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="150"/>
-      <c r="F15" s="149" t="s">
+      <c r="E15" s="145"/>
+      <c r="F15" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="150"/>
+      <c r="G15" s="145"/>
       <c r="H15" s="132" t="s">
         <v>66</v>
       </c>
@@ -3461,12 +3467,12 @@
       <c r="A16" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="168"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="152"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="147"/>
       <c r="H16" s="131" t="s">
         <v>33</v>
       </c>
@@ -3482,12 +3488,12 @@
       <c r="A17" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="168"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="152"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="147"/>
       <c r="H17" s="51" t="s">
         <v>91</v>
       </c>
@@ -3503,12 +3509,12 @@
       <c r="A18" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="168"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="152"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="147"/>
       <c r="H18" s="131" t="s">
         <v>36</v>
       </c>
@@ -3522,12 +3528,12 @@
       <c r="A19" s="52">
         <v>211</v>
       </c>
-      <c r="B19" s="170"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="154"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="149"/>
       <c r="H19" s="51">
         <v>43355</v>
       </c>
@@ -3568,18 +3574,18 @@
       <c r="A21" s="49">
         <v>3</v>
       </c>
-      <c r="B21" s="166" t="s">
+      <c r="B21" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="167"/>
-      <c r="D21" s="149" t="s">
+      <c r="C21" s="162"/>
+      <c r="D21" s="144" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="150"/>
-      <c r="F21" s="149" t="s">
+      <c r="E21" s="145"/>
+      <c r="F21" s="144" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="150"/>
+      <c r="G21" s="145"/>
       <c r="H21" s="129" t="s">
         <v>83</v>
       </c>
@@ -3591,12 +3597,12 @@
       <c r="A22" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="168"/>
-      <c r="C22" s="169"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="152"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="147"/>
       <c r="H22" s="120" t="s">
         <v>33</v>
       </c>
@@ -3612,12 +3618,12 @@
       <c r="A23" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="168"/>
-      <c r="C23" s="169"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="152"/>
+      <c r="B23" s="163"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="147"/>
       <c r="H23" s="51" t="s">
         <v>93</v>
       </c>
@@ -3629,12 +3635,12 @@
       <c r="A24" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="168"/>
-      <c r="C24" s="169"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="152"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="147"/>
       <c r="H24" s="120" t="s">
         <v>36</v>
       </c>
@@ -3648,12 +3654,12 @@
       <c r="A25" s="52">
         <v>311</v>
       </c>
-      <c r="B25" s="170"/>
-      <c r="C25" s="171"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="154"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="149"/>
       <c r="H25" s="54">
         <v>43355</v>
       </c>
@@ -3662,21 +3668,21 @@
       <c r="K25" s="128"/>
     </row>
     <row r="26" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A26" s="201" t="s">
+      <c r="A26" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="136" t="s">
+      <c r="B26" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="137"/>
-      <c r="D26" s="136" t="s">
+      <c r="C26" s="135"/>
+      <c r="D26" s="134" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="208"/>
-      <c r="F26" s="136" t="s">
+      <c r="E26" s="203"/>
+      <c r="F26" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="208"/>
+      <c r="G26" s="203"/>
       <c r="H26" s="131" t="s">
         <v>28</v>
       </c>
@@ -3689,38 +3695,38 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A27" s="191">
+      <c r="A27" s="186">
         <v>3</v>
       </c>
-      <c r="B27" s="157" t="s">
+      <c r="B27" s="152" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="203"/>
-      <c r="D27" s="182" t="s">
+      <c r="C27" s="198"/>
+      <c r="D27" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="203"/>
-      <c r="F27" s="182" t="s">
+      <c r="E27" s="198"/>
+      <c r="F27" s="177" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="203"/>
+      <c r="G27" s="198"/>
       <c r="H27" s="54" t="s">
         <v>83</v>
       </c>
       <c r="I27" s="54"/>
       <c r="J27" s="55"/>
-      <c r="K27" s="209"/>
+      <c r="K27" s="204"/>
     </row>
     <row r="28" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A28" s="201" t="s">
+      <c r="A28" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="204"/>
-      <c r="C28" s="205"/>
-      <c r="D28" s="204"/>
-      <c r="E28" s="205"/>
-      <c r="F28" s="204"/>
-      <c r="G28" s="205"/>
+      <c r="B28" s="199"/>
+      <c r="C28" s="200"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="200"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="200"/>
       <c r="H28" s="131" t="s">
         <v>33</v>
       </c>
@@ -3730,85 +3736,85 @@
       <c r="J28" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="K28" s="210"/>
+      <c r="K28" s="205"/>
     </row>
     <row r="29" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A29" s="191" t="s">
+      <c r="A29" s="186" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="204"/>
-      <c r="C29" s="205"/>
-      <c r="D29" s="204"/>
-      <c r="E29" s="205"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="205"/>
+      <c r="B29" s="199"/>
+      <c r="C29" s="200"/>
+      <c r="D29" s="199"/>
+      <c r="E29" s="200"/>
+      <c r="F29" s="199"/>
+      <c r="G29" s="200"/>
       <c r="H29" s="54" t="s">
         <v>94</v>
       </c>
       <c r="I29" s="54"/>
       <c r="J29" s="55"/>
-      <c r="K29" s="210"/>
+      <c r="K29" s="205"/>
     </row>
     <row r="30" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A30" s="201" t="s">
+      <c r="A30" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="204"/>
-      <c r="C30" s="205"/>
-      <c r="D30" s="204"/>
-      <c r="E30" s="205"/>
-      <c r="F30" s="204"/>
-      <c r="G30" s="205"/>
+      <c r="B30" s="199"/>
+      <c r="C30" s="200"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="200"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="200"/>
       <c r="H30" s="131" t="s">
         <v>36</v>
       </c>
       <c r="I30" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="J30" s="202"/>
-      <c r="K30" s="210"/>
+      <c r="J30" s="197"/>
+      <c r="K30" s="205"/>
     </row>
     <row r="31" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A31" s="191">
+      <c r="A31" s="186">
         <v>411</v>
       </c>
-      <c r="B31" s="206"/>
-      <c r="C31" s="207"/>
-      <c r="D31" s="206"/>
-      <c r="E31" s="207"/>
-      <c r="F31" s="206"/>
-      <c r="G31" s="207"/>
+      <c r="B31" s="201"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="201"/>
+      <c r="E31" s="202"/>
+      <c r="F31" s="201"/>
+      <c r="G31" s="202"/>
       <c r="H31" s="54">
         <v>43355</v>
       </c>
       <c r="I31" s="54"/>
       <c r="J31" s="55"/>
-      <c r="K31" s="211"/>
-    </row>
-    <row r="32" spans="1:11" s="200" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A32" s="195" t="s">
+      <c r="K31" s="206"/>
+    </row>
+    <row r="32" spans="1:11" s="195" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A32" s="190" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="196" t="s">
+      <c r="B32" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="197"/>
-      <c r="D32" s="196" t="s">
+      <c r="C32" s="192"/>
+      <c r="D32" s="191" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="197"/>
-      <c r="F32" s="196" t="s">
+      <c r="E32" s="192"/>
+      <c r="F32" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="197"/>
-      <c r="H32" s="198" t="s">
+      <c r="G32" s="192"/>
+      <c r="H32" s="193" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="198"/>
-      <c r="J32" s="198" t="s">
+      <c r="I32" s="193"/>
+      <c r="J32" s="193" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="199" t="s">
+      <c r="K32" s="194" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3816,18 +3822,18 @@
       <c r="A33" s="49">
         <v>5</v>
       </c>
-      <c r="B33" s="166" t="s">
+      <c r="B33" s="161" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="167"/>
-      <c r="D33" s="149" t="s">
+      <c r="C33" s="162"/>
+      <c r="D33" s="144" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="150"/>
-      <c r="F33" s="149" t="s">
+      <c r="E33" s="145"/>
+      <c r="F33" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="150"/>
+      <c r="G33" s="145"/>
       <c r="H33" s="132" t="s">
         <v>66</v>
       </c>
@@ -3838,22 +3844,22 @@
       <c r="K33" s="126"/>
     </row>
     <row r="34" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A34" s="198" t="s">
+      <c r="A34" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="168"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="152"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="152"/>
-      <c r="H34" s="198" t="s">
+      <c r="B34" s="163"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="193" t="s">
         <v>33</v>
       </c>
-      <c r="I34" s="198" t="s">
+      <c r="I34" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="J34" s="198" t="s">
+      <c r="J34" s="193" t="s">
         <v>37</v>
       </c>
       <c r="K34" s="127"/>
@@ -3862,12 +3868,12 @@
       <c r="A35" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="168"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="152"/>
+      <c r="B35" s="163"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="147"/>
       <c r="H35" s="51" t="s">
         <v>93</v>
       </c>
@@ -3880,34 +3886,34 @@
       <c r="K35" s="127"/>
     </row>
     <row r="36" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A36" s="198" t="s">
+      <c r="A36" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="168"/>
-      <c r="C36" s="169"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="152"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="152"/>
-      <c r="H36" s="198" t="s">
+      <c r="B36" s="163"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="146"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="193" t="s">
         <v>36</v>
       </c>
-      <c r="I36" s="198" t="s">
+      <c r="I36" s="193" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="198"/>
+      <c r="J36" s="193"/>
       <c r="K36" s="127"/>
     </row>
     <row r="37" spans="1:11" ht="11.25" customHeight="1">
       <c r="A37" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="170"/>
-      <c r="C37" s="171"/>
-      <c r="D37" s="153"/>
-      <c r="E37" s="154"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="154"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="166"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="149"/>
       <c r="H37" s="54">
         <v>43355</v>
       </c>
@@ -3921,56 +3927,56 @@
       <c r="A38" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="174" t="s">
+      <c r="B38" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="175"/>
-      <c r="D38" s="175"/>
-      <c r="E38" s="175"/>
-      <c r="F38" s="175"/>
-      <c r="G38" s="175"/>
-      <c r="H38" s="175"/>
-      <c r="I38" s="175"/>
-      <c r="J38" s="175"/>
-      <c r="K38" s="176"/>
+      <c r="C38" s="170"/>
+      <c r="D38" s="170"/>
+      <c r="E38" s="170"/>
+      <c r="F38" s="170"/>
+      <c r="G38" s="170"/>
+      <c r="H38" s="170"/>
+      <c r="I38" s="170"/>
+      <c r="J38" s="170"/>
+      <c r="K38" s="171"/>
     </row>
     <row r="39" spans="1:11" ht="10.5" customHeight="1">
       <c r="A39" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="163" t="s">
+      <c r="B39" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="164"/>
-      <c r="D39" s="164"/>
-      <c r="E39" s="164"/>
-      <c r="F39" s="164"/>
-      <c r="G39" s="164"/>
-      <c r="H39" s="164"/>
-      <c r="I39" s="164"/>
-      <c r="J39" s="164"/>
-      <c r="K39" s="165"/>
+      <c r="C39" s="159"/>
+      <c r="D39" s="159"/>
+      <c r="E39" s="159"/>
+      <c r="F39" s="159"/>
+      <c r="G39" s="159"/>
+      <c r="H39" s="159"/>
+      <c r="I39" s="159"/>
+      <c r="J39" s="159"/>
+      <c r="K39" s="160"/>
     </row>
     <row r="40" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A40" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="155" t="s">
+      <c r="B40" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="156"/>
-      <c r="D40" s="155" t="s">
+      <c r="C40" s="151"/>
+      <c r="D40" s="150" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="156"/>
-      <c r="F40" s="155" t="s">
+      <c r="E40" s="151"/>
+      <c r="F40" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="G40" s="156"/>
-      <c r="H40" s="155" t="s">
+      <c r="G40" s="151"/>
+      <c r="H40" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="156"/>
+      <c r="I40" s="151"/>
       <c r="J40" s="131" t="s">
         <v>29</v>
       </c>
@@ -3982,35 +3988,35 @@
       <c r="A41" s="49">
         <v>6</v>
       </c>
-      <c r="B41" s="157" t="s">
+      <c r="B41" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="158"/>
-      <c r="D41" s="182" t="s">
+      <c r="C41" s="153"/>
+      <c r="D41" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="E41" s="183"/>
-      <c r="F41" s="182" t="s">
+      <c r="E41" s="178"/>
+      <c r="F41" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="G41" s="183"/>
-      <c r="H41" s="177" t="s">
+      <c r="G41" s="178"/>
+      <c r="H41" s="172" t="s">
         <v>66</v>
       </c>
-      <c r="I41" s="178"/>
+      <c r="I41" s="173"/>
       <c r="J41" s="49"/>
-      <c r="K41" s="179"/>
+      <c r="K41" s="174"/>
     </row>
     <row r="42" spans="1:11" ht="10.5" customHeight="1">
       <c r="A42" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="159"/>
-      <c r="C42" s="160"/>
-      <c r="D42" s="184"/>
-      <c r="E42" s="185"/>
-      <c r="F42" s="184"/>
-      <c r="G42" s="185"/>
+      <c r="B42" s="154"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="179"/>
+      <c r="E42" s="180"/>
+      <c r="F42" s="179"/>
+      <c r="G42" s="180"/>
       <c r="H42" s="131" t="s">
         <v>33</v>
       </c>
@@ -4020,79 +4026,81 @@
       <c r="J42" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="K42" s="180"/>
+      <c r="K42" s="175"/>
     </row>
     <row r="43" spans="1:11" ht="10.5" customHeight="1">
       <c r="A43" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="159"/>
-      <c r="C43" s="160"/>
-      <c r="D43" s="184"/>
-      <c r="E43" s="185"/>
-      <c r="F43" s="184"/>
-      <c r="G43" s="185"/>
+      <c r="B43" s="154"/>
+      <c r="C43" s="155"/>
+      <c r="D43" s="179"/>
+      <c r="E43" s="180"/>
+      <c r="F43" s="179"/>
+      <c r="G43" s="180"/>
       <c r="H43" s="51" t="s">
         <v>94</v>
       </c>
       <c r="I43" s="51"/>
       <c r="J43" s="49"/>
-      <c r="K43" s="180"/>
+      <c r="K43" s="175"/>
     </row>
     <row r="44" spans="1:11" ht="10.5" customHeight="1">
       <c r="A44" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="159"/>
-      <c r="C44" s="160"/>
-      <c r="D44" s="184"/>
-      <c r="E44" s="185"/>
-      <c r="F44" s="184"/>
-      <c r="G44" s="185"/>
+      <c r="B44" s="154"/>
+      <c r="C44" s="155"/>
+      <c r="D44" s="179"/>
+      <c r="E44" s="180"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="180"/>
       <c r="H44" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="I44" s="131"/>
+      <c r="I44" s="131" t="s">
+        <v>32</v>
+      </c>
       <c r="J44" s="131"/>
-      <c r="K44" s="180"/>
+      <c r="K44" s="175"/>
     </row>
     <row r="45" spans="1:11" ht="10.5" customHeight="1">
       <c r="A45" s="52">
         <v>611</v>
       </c>
-      <c r="B45" s="161"/>
-      <c r="C45" s="162"/>
-      <c r="D45" s="186"/>
-      <c r="E45" s="187"/>
-      <c r="F45" s="186"/>
-      <c r="G45" s="187"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="157"/>
+      <c r="D45" s="181"/>
+      <c r="E45" s="182"/>
+      <c r="F45" s="181"/>
+      <c r="G45" s="182"/>
       <c r="H45" s="54">
         <v>43355</v>
       </c>
       <c r="I45" s="51"/>
       <c r="J45" s="49"/>
-      <c r="K45" s="181"/>
+      <c r="K45" s="176"/>
     </row>
     <row r="46" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A46" s="120">
         <v>511</v>
       </c>
-      <c r="B46" s="172" t="s">
+      <c r="B46" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="173"/>
-      <c r="D46" s="172" t="s">
+      <c r="C46" s="168"/>
+      <c r="D46" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="E46" s="173"/>
-      <c r="F46" s="172" t="s">
+      <c r="E46" s="168"/>
+      <c r="F46" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="G46" s="173"/>
-      <c r="H46" s="172" t="s">
+      <c r="G46" s="168"/>
+      <c r="H46" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="I46" s="173"/>
+      <c r="I46" s="168"/>
       <c r="J46" s="120" t="s">
         <v>29</v>
       </c>
@@ -4104,37 +4112,37 @@
       <c r="A47" s="49">
         <v>7</v>
       </c>
-      <c r="B47" s="157" t="s">
+      <c r="B47" s="152" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="158"/>
-      <c r="D47" s="182" t="s">
+      <c r="C47" s="153"/>
+      <c r="D47" s="177" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="183"/>
-      <c r="F47" s="182" t="s">
+      <c r="E47" s="178"/>
+      <c r="F47" s="177" t="s">
         <v>73</v>
       </c>
-      <c r="G47" s="183"/>
-      <c r="H47" s="177" t="s">
+      <c r="G47" s="178"/>
+      <c r="H47" s="172" t="s">
         <v>34</v>
       </c>
-      <c r="I47" s="178"/>
+      <c r="I47" s="173"/>
       <c r="J47" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="K47" s="179"/>
+      <c r="K47" s="174"/>
     </row>
     <row r="48" spans="1:11" ht="10.5" customHeight="1">
       <c r="A48" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="159"/>
-      <c r="C48" s="160"/>
-      <c r="D48" s="184"/>
-      <c r="E48" s="185"/>
-      <c r="F48" s="184"/>
-      <c r="G48" s="185"/>
+      <c r="B48" s="154"/>
+      <c r="C48" s="155"/>
+      <c r="D48" s="179"/>
+      <c r="E48" s="180"/>
+      <c r="F48" s="179"/>
+      <c r="G48" s="180"/>
       <c r="H48" s="120" t="s">
         <v>33</v>
       </c>
@@ -4144,39 +4152,39 @@
       <c r="J48" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="K48" s="180"/>
+      <c r="K48" s="175"/>
     </row>
     <row r="49" spans="1:11" ht="10.5" customHeight="1">
       <c r="A49" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B49" s="159"/>
-      <c r="C49" s="160"/>
-      <c r="D49" s="184"/>
-      <c r="E49" s="185"/>
-      <c r="F49" s="184"/>
-      <c r="G49" s="185"/>
+      <c r="B49" s="154"/>
+      <c r="C49" s="155"/>
+      <c r="D49" s="179"/>
+      <c r="E49" s="180"/>
+      <c r="F49" s="179"/>
+      <c r="G49" s="180"/>
       <c r="H49" s="51" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="I49" s="51" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J49" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K49" s="180"/>
+        <v>90</v>
+      </c>
+      <c r="K49" s="175"/>
     </row>
     <row r="50" spans="1:11" ht="10.5" customHeight="1">
       <c r="A50" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="159"/>
-      <c r="C50" s="160"/>
-      <c r="D50" s="184"/>
-      <c r="E50" s="185"/>
-      <c r="F50" s="184"/>
-      <c r="G50" s="185"/>
+      <c r="B50" s="154"/>
+      <c r="C50" s="155"/>
+      <c r="D50" s="179"/>
+      <c r="E50" s="180"/>
+      <c r="F50" s="179"/>
+      <c r="G50" s="180"/>
       <c r="H50" s="47" t="s">
         <v>36</v>
       </c>
@@ -4184,18 +4192,18 @@
         <v>32</v>
       </c>
       <c r="J50" s="47"/>
-      <c r="K50" s="180"/>
+      <c r="K50" s="175"/>
     </row>
     <row r="51" spans="1:11" ht="10.5" customHeight="1">
       <c r="A51" s="52">
         <v>711</v>
       </c>
-      <c r="B51" s="161"/>
-      <c r="C51" s="162"/>
-      <c r="D51" s="186"/>
-      <c r="E51" s="187"/>
-      <c r="F51" s="186"/>
-      <c r="G51" s="187"/>
+      <c r="B51" s="156"/>
+      <c r="C51" s="157"/>
+      <c r="D51" s="181"/>
+      <c r="E51" s="182"/>
+      <c r="F51" s="181"/>
+      <c r="G51" s="182"/>
       <c r="H51" s="54">
         <v>43355</v>
       </c>
@@ -4203,214 +4211,224 @@
         <v>43355</v>
       </c>
       <c r="J51" s="49"/>
-      <c r="K51" s="181"/>
-    </row>
-    <row r="52" spans="1:11" s="216" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A52" s="212">
+      <c r="K51" s="176"/>
+    </row>
+    <row r="52" spans="1:11" s="211" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A52" s="207">
         <v>811</v>
       </c>
-      <c r="B52" s="213" t="s">
+      <c r="B52" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="214"/>
-      <c r="D52" s="213" t="s">
+      <c r="C52" s="209"/>
+      <c r="D52" s="208" t="s">
         <v>58</v>
       </c>
-      <c r="E52" s="214"/>
-      <c r="F52" s="213" t="s">
+      <c r="E52" s="209"/>
+      <c r="F52" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="G52" s="214"/>
-      <c r="H52" s="213" t="s">
+      <c r="G52" s="209"/>
+      <c r="H52" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="I52" s="214"/>
-      <c r="J52" s="212" t="s">
+      <c r="I52" s="209"/>
+      <c r="J52" s="207" t="s">
         <v>29</v>
       </c>
-      <c r="K52" s="215" t="s">
+      <c r="K52" s="210" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="10.5" customHeight="1">
       <c r="A53" s="52"/>
-      <c r="B53" s="134"/>
-      <c r="C53" s="135"/>
-      <c r="D53" s="138"/>
-      <c r="E53" s="139"/>
-      <c r="F53" s="138"/>
-      <c r="G53" s="139"/>
+      <c r="B53" s="152"/>
+      <c r="C53" s="198"/>
+      <c r="D53" s="177"/>
+      <c r="E53" s="198"/>
+      <c r="F53" s="177"/>
+      <c r="G53" s="198"/>
       <c r="H53" s="54"/>
       <c r="I53" s="54"/>
       <c r="J53" s="49"/>
-      <c r="K53" s="146"/>
+      <c r="K53" s="174"/>
     </row>
     <row r="54" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A54" s="217"/>
-      <c r="B54" s="134"/>
-      <c r="C54" s="135"/>
-      <c r="D54" s="138"/>
-      <c r="E54" s="139"/>
-      <c r="F54" s="138"/>
-      <c r="G54" s="139"/>
-      <c r="H54" s="218"/>
-      <c r="I54" s="218"/>
-      <c r="J54" s="219"/>
-      <c r="K54" s="146"/>
+      <c r="A54" s="212"/>
+      <c r="B54" s="199"/>
+      <c r="C54" s="200"/>
+      <c r="D54" s="199"/>
+      <c r="E54" s="200"/>
+      <c r="F54" s="199"/>
+      <c r="G54" s="200"/>
+      <c r="H54" s="131" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="J54" s="131" t="s">
+        <v>37</v>
+      </c>
+      <c r="K54" s="175"/>
     </row>
     <row r="55" spans="1:11" ht="10.5" customHeight="1">
       <c r="A55" s="52"/>
-      <c r="B55" s="134"/>
-      <c r="C55" s="135"/>
-      <c r="D55" s="138"/>
-      <c r="E55" s="139"/>
-      <c r="F55" s="138"/>
-      <c r="G55" s="139"/>
+      <c r="B55" s="199"/>
+      <c r="C55" s="200"/>
+      <c r="D55" s="199"/>
+      <c r="E55" s="200"/>
+      <c r="F55" s="199"/>
+      <c r="G55" s="200"/>
       <c r="H55" s="54"/>
       <c r="I55" s="54"/>
       <c r="J55" s="49"/>
-      <c r="K55" s="146"/>
-    </row>
-    <row r="56" spans="1:11" s="223" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A56" s="217"/>
-      <c r="B56" s="224"/>
-      <c r="C56" s="225"/>
-      <c r="D56" s="226"/>
-      <c r="E56" s="227"/>
-      <c r="F56" s="226"/>
-      <c r="G56" s="227"/>
-      <c r="H56" s="218"/>
-      <c r="I56" s="218"/>
-      <c r="J56" s="219"/>
-      <c r="K56" s="228"/>
+      <c r="K55" s="175"/>
+    </row>
+    <row r="56" spans="1:11" s="216" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A56" s="212"/>
+      <c r="B56" s="199"/>
+      <c r="C56" s="200"/>
+      <c r="D56" s="199"/>
+      <c r="E56" s="200"/>
+      <c r="F56" s="199"/>
+      <c r="G56" s="200"/>
+      <c r="H56" s="131" t="s">
+        <v>36</v>
+      </c>
+      <c r="I56" s="131" t="s">
+        <v>32</v>
+      </c>
+      <c r="J56" s="131"/>
+      <c r="K56" s="175"/>
     </row>
     <row r="57" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A57" s="222"/>
-      <c r="B57" s="134"/>
-      <c r="C57" s="135"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="139"/>
-      <c r="F57" s="138"/>
-      <c r="G57" s="139"/>
+      <c r="A57" s="215"/>
+      <c r="B57" s="201"/>
+      <c r="C57" s="202"/>
+      <c r="D57" s="201"/>
+      <c r="E57" s="202"/>
+      <c r="F57" s="201"/>
+      <c r="G57" s="202"/>
       <c r="H57" s="54">
         <v>43355</v>
       </c>
-      <c r="I57" s="220"/>
-      <c r="J57" s="221"/>
-      <c r="K57" s="146"/>
-    </row>
-    <row r="58" spans="1:11" s="194" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A58" s="193">
-        <v>811</v>
-      </c>
-      <c r="B58" s="229" t="s">
+      <c r="I57" s="213"/>
+      <c r="J57" s="214"/>
+      <c r="K57" s="176"/>
+    </row>
+    <row r="58" spans="1:11" s="189" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A58" s="188">
+        <v>911</v>
+      </c>
+      <c r="B58" s="217" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="230"/>
-      <c r="D58" s="229" t="s">
+      <c r="C58" s="218"/>
+      <c r="D58" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="E58" s="230"/>
-      <c r="F58" s="229" t="s">
+      <c r="E58" s="218"/>
+      <c r="F58" s="217" t="s">
         <v>27</v>
       </c>
-      <c r="G58" s="230"/>
-      <c r="H58" s="229" t="s">
+      <c r="G58" s="218"/>
+      <c r="H58" s="217" t="s">
         <v>28</v>
       </c>
-      <c r="I58" s="230"/>
-      <c r="J58" s="193" t="s">
+      <c r="I58" s="218"/>
+      <c r="J58" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="K58" s="192" t="s">
+      <c r="K58" s="187" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A59" s="222"/>
-      <c r="B59" s="134"/>
-      <c r="C59" s="135"/>
-      <c r="D59" s="138"/>
-      <c r="E59" s="139"/>
-      <c r="F59" s="138"/>
-      <c r="G59" s="139"/>
-      <c r="H59" s="220"/>
-      <c r="I59" s="220"/>
-      <c r="J59" s="221"/>
-      <c r="K59" s="146"/>
+      <c r="A59" s="215"/>
+      <c r="B59" s="152"/>
+      <c r="C59" s="198"/>
+      <c r="F59" s="177"/>
+      <c r="G59" s="198"/>
+      <c r="H59" s="213"/>
+      <c r="I59" s="213"/>
+      <c r="J59" s="214"/>
+      <c r="K59" s="174"/>
     </row>
     <row r="60" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A60" s="222"/>
-      <c r="B60" s="134"/>
-      <c r="C60" s="135"/>
-      <c r="D60" s="138"/>
-      <c r="E60" s="139"/>
-      <c r="F60" s="138"/>
-      <c r="G60" s="139"/>
-      <c r="H60" s="220"/>
-      <c r="I60" s="220"/>
-      <c r="J60" s="221"/>
-      <c r="K60" s="146"/>
+      <c r="A60" s="219"/>
+      <c r="B60" s="199"/>
+      <c r="C60" s="200"/>
+      <c r="F60" s="199"/>
+      <c r="G60" s="200"/>
+      <c r="H60" s="193" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" s="193" t="s">
+        <v>1</v>
+      </c>
+      <c r="J60" s="193" t="s">
+        <v>37</v>
+      </c>
+      <c r="K60" s="175"/>
     </row>
     <row r="61" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A61" s="222"/>
-      <c r="B61" s="134"/>
-      <c r="C61" s="135"/>
-      <c r="D61" s="138"/>
-      <c r="E61" s="139"/>
-      <c r="F61" s="138"/>
-      <c r="G61" s="139"/>
-      <c r="H61" s="220"/>
-      <c r="I61" s="220"/>
-      <c r="J61" s="221"/>
-      <c r="K61" s="146"/>
+      <c r="A61" s="215"/>
+      <c r="B61" s="199"/>
+      <c r="C61" s="200"/>
+      <c r="F61" s="199"/>
+      <c r="G61" s="200"/>
+      <c r="H61" s="213"/>
+      <c r="I61" s="213"/>
+      <c r="J61" s="214"/>
+      <c r="K61" s="175"/>
     </row>
     <row r="62" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A62" s="222"/>
-      <c r="B62" s="134"/>
-      <c r="C62" s="135"/>
-      <c r="D62" s="138"/>
-      <c r="E62" s="139"/>
-      <c r="F62" s="138"/>
-      <c r="G62" s="139"/>
-      <c r="H62" s="220"/>
-      <c r="I62" s="220"/>
-      <c r="J62" s="221"/>
-      <c r="K62" s="146"/>
+      <c r="A62" s="219"/>
+      <c r="B62" s="199"/>
+      <c r="C62" s="200"/>
+      <c r="F62" s="199"/>
+      <c r="G62" s="200"/>
+      <c r="H62" s="193" t="s">
+        <v>36</v>
+      </c>
+      <c r="I62" s="193" t="s">
+        <v>32</v>
+      </c>
+      <c r="J62" s="193"/>
+      <c r="K62" s="175"/>
     </row>
     <row r="63" spans="1:11" ht="10.5" customHeight="1">
       <c r="A63" s="52"/>
-      <c r="B63" s="134"/>
-      <c r="C63" s="135"/>
-      <c r="D63" s="138"/>
-      <c r="E63" s="139"/>
-      <c r="F63" s="138"/>
-      <c r="G63" s="139"/>
+      <c r="B63" s="201"/>
+      <c r="C63" s="202"/>
+      <c r="F63" s="201"/>
+      <c r="G63" s="202"/>
       <c r="H63" s="54"/>
       <c r="I63" s="54"/>
       <c r="J63" s="49"/>
-      <c r="K63" s="146"/>
+      <c r="K63" s="176"/>
     </row>
     <row r="64" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A64" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B64" s="172" t="s">
+      <c r="B64" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="173"/>
-      <c r="D64" s="172" t="s">
+      <c r="C64" s="168"/>
+      <c r="D64" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="E64" s="173"/>
-      <c r="F64" s="172" t="s">
+      <c r="E64" s="168"/>
+      <c r="F64" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="G64" s="173"/>
-      <c r="H64" s="190" t="s">
+      <c r="G64" s="168"/>
+      <c r="H64" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="I64" s="190"/>
+      <c r="I64" s="185"/>
       <c r="J64" s="47" t="s">
         <v>29</v>
       </c>
@@ -4422,37 +4440,37 @@
       <c r="A65" s="49">
         <v>10</v>
       </c>
-      <c r="B65" s="157" t="s">
+      <c r="B65" s="152" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="158"/>
-      <c r="D65" s="182" t="s">
+      <c r="C65" s="153"/>
+      <c r="D65" s="177" t="s">
         <v>75</v>
       </c>
-      <c r="E65" s="183"/>
-      <c r="F65" s="182" t="s">
+      <c r="E65" s="178"/>
+      <c r="F65" s="177" t="s">
         <v>73</v>
       </c>
-      <c r="G65" s="183"/>
-      <c r="H65" s="188" t="s">
+      <c r="G65" s="178"/>
+      <c r="H65" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="I65" s="189"/>
+      <c r="I65" s="184"/>
       <c r="J65" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="K65" s="179"/>
+      <c r="K65" s="174"/>
     </row>
     <row r="66" spans="1:11" ht="10.5" customHeight="1">
       <c r="A66" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="159"/>
-      <c r="C66" s="160"/>
-      <c r="D66" s="184"/>
-      <c r="E66" s="185"/>
-      <c r="F66" s="184"/>
-      <c r="G66" s="185"/>
+      <c r="B66" s="154"/>
+      <c r="C66" s="155"/>
+      <c r="D66" s="179"/>
+      <c r="E66" s="180"/>
+      <c r="F66" s="179"/>
+      <c r="G66" s="180"/>
       <c r="H66" s="47" t="s">
         <v>33</v>
       </c>
@@ -4462,18 +4480,18 @@
       <c r="J66" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="K66" s="180"/>
+      <c r="K66" s="175"/>
     </row>
     <row r="67" spans="1:11" ht="10.5" customHeight="1">
       <c r="A67" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="159"/>
-      <c r="C67" s="160"/>
-      <c r="D67" s="184"/>
-      <c r="E67" s="185"/>
-      <c r="F67" s="184"/>
-      <c r="G67" s="185"/>
+      <c r="B67" s="154"/>
+      <c r="C67" s="155"/>
+      <c r="D67" s="179"/>
+      <c r="E67" s="180"/>
+      <c r="F67" s="179"/>
+      <c r="G67" s="180"/>
       <c r="H67" s="51" t="s">
         <v>39</v>
       </c>
@@ -4483,18 +4501,18 @@
       <c r="J67" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="K67" s="180"/>
+      <c r="K67" s="175"/>
     </row>
     <row r="68" spans="1:11" ht="10.5" customHeight="1">
       <c r="A68" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="159"/>
-      <c r="C68" s="160"/>
-      <c r="D68" s="184"/>
-      <c r="E68" s="185"/>
-      <c r="F68" s="184"/>
-      <c r="G68" s="185"/>
+      <c r="B68" s="154"/>
+      <c r="C68" s="155"/>
+      <c r="D68" s="179"/>
+      <c r="E68" s="180"/>
+      <c r="F68" s="179"/>
+      <c r="G68" s="180"/>
       <c r="H68" s="47" t="s">
         <v>36</v>
       </c>
@@ -4502,18 +4520,18 @@
         <v>32</v>
       </c>
       <c r="J68" s="47"/>
-      <c r="K68" s="180"/>
+      <c r="K68" s="175"/>
     </row>
     <row r="69" spans="1:11" ht="10.5" customHeight="1">
       <c r="A69" s="52">
         <v>1011</v>
       </c>
-      <c r="B69" s="161"/>
-      <c r="C69" s="162"/>
-      <c r="D69" s="186"/>
-      <c r="E69" s="187"/>
-      <c r="F69" s="186"/>
-      <c r="G69" s="187"/>
+      <c r="B69" s="156"/>
+      <c r="C69" s="157"/>
+      <c r="D69" s="181"/>
+      <c r="E69" s="182"/>
+      <c r="F69" s="181"/>
+      <c r="G69" s="182"/>
       <c r="H69" s="51">
         <v>43355</v>
       </c>
@@ -4521,7 +4539,7 @@
         <v>43355</v>
       </c>
       <c r="J69" s="49"/>
-      <c r="K69" s="181"/>
+      <c r="K69" s="176"/>
     </row>
     <row r="70" spans="1:11" s="60" customFormat="1">
       <c r="A70" s="64"/>
@@ -4923,7 +4941,13 @@
       <c r="K126" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="59">
+    <mergeCell ref="D53:E57"/>
+    <mergeCell ref="F53:G57"/>
+    <mergeCell ref="B59:C63"/>
+    <mergeCell ref="F59:G63"/>
+    <mergeCell ref="K53:K57"/>
+    <mergeCell ref="K59:K63"/>
     <mergeCell ref="B65:C69"/>
     <mergeCell ref="D47:E51"/>
     <mergeCell ref="D65:E69"/>
@@ -4939,6 +4963,7 @@
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="F58:G58"/>
+    <mergeCell ref="B53:C57"/>
     <mergeCell ref="K65:K69"/>
     <mergeCell ref="F47:G51"/>
     <mergeCell ref="K47:K51"/>

--- a/Quantriduanexcel.xlsx
+++ b/Quantriduanexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRUNG DONG\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D749A85-6BA1-4B9A-B134-8C19FC4B77AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B72AEF5-00C8-4A41-B553-FCB9F384091D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>Nguyen Duc Tien</author>
   </authors>
   <commentList>
-    <comment ref="B39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="H46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="J46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="A47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="H48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -98,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="I48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="J48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -124,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="A49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -156,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="H50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -169,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="A51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -182,64 +182,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="H54" authorId="0" shapeId="0" xr:uid="{FBFEFAD4-FF29-46F8-8941-A998609022BC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Người thực hiện test</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I54" authorId="0" shapeId="0" xr:uid="{01AEB04F-3F60-4185-9D7E-FF52D1F78820}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Người chịu trách nhiệm về lỗi</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J54" authorId="0" shapeId="0" xr:uid="{27CD47D7-365D-4064-AF35-10AB83295D7A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Người sửa lỗi</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H56" authorId="0" shapeId="0" xr:uid="{44891ADE-2D11-49D5-ACAE-3803D8CDE3C5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Ngày thực hiện test</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="100">
   <si>
     <t>Online ID</t>
   </si>
@@ -532,6 +480,18 @@
   </si>
   <si>
     <t>10.1.1</t>
+  </si>
+  <si>
+    <t>8.1.1</t>
+  </si>
+  <si>
+    <t>9.1.1</t>
+  </si>
+  <si>
+    <t>Không đi làm vào lịch đăng kí</t>
+  </si>
+  <si>
+    <t>Do không khớp vân tay</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1026,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1385,11 +1345,26 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1533,15 +1508,6 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="21" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1578,71 +1544,38 @@
     <xf numFmtId="0" fontId="21" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="21" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2198,13 +2131,13 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="O6" s="142" t="s">
+      <c r="O6" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="142"/>
-      <c r="Q6" s="142"/>
-      <c r="R6" s="142"/>
-      <c r="S6" s="142"/>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="147"/>
+      <c r="R6" s="147"/>
+      <c r="S6" s="147"/>
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
@@ -2214,11 +2147,11 @@
       <c r="B7" s="22"/>
       <c r="E7" s="4"/>
       <c r="G7" s="21"/>
-      <c r="O7" s="142"/>
-      <c r="P7" s="142"/>
-      <c r="Q7" s="142"/>
-      <c r="R7" s="142"/>
-      <c r="S7" s="142"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="147"/>
+      <c r="Q7" s="147"/>
+      <c r="R7" s="147"/>
+      <c r="S7" s="147"/>
       <c r="X7" s="23"/>
     </row>
     <row r="8" spans="1:24" s="24" customFormat="1" ht="14.25" customHeight="1">
@@ -2273,12 +2206,12 @@
       <c r="D11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="143">
+      <c r="E11" s="148">
         <f ca="1">TODAY()</f>
         <v>43443</v>
       </c>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
       <c r="H11" s="74"/>
       <c r="L11" s="33" t="s">
         <v>16</v>
@@ -3138,7 +3071,7 @@
   </sheetPr>
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="B59" sqref="B59:C63"/>
     </sheetView>
   </sheetViews>
@@ -3318,18 +3251,18 @@
       <c r="A9" s="49">
         <v>1</v>
       </c>
-      <c r="B9" s="161" t="s">
+      <c r="B9" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="162"/>
-      <c r="D9" s="144" t="s">
+      <c r="C9" s="167"/>
+      <c r="D9" s="149" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="145"/>
-      <c r="F9" s="136" t="s">
+      <c r="E9" s="150"/>
+      <c r="F9" s="141" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="137"/>
+      <c r="G9" s="142"/>
       <c r="H9" s="129" t="s">
         <v>40</v>
       </c>
@@ -3341,12 +3274,12 @@
       <c r="A10" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="163"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="139"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="144"/>
       <c r="H10" s="120" t="s">
         <v>33</v>
       </c>
@@ -3362,12 +3295,12 @@
       <c r="A11" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="163"/>
-      <c r="C11" s="164"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="139"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="144"/>
       <c r="H11" s="51" t="s">
         <v>90</v>
       </c>
@@ -3379,12 +3312,12 @@
       <c r="A12" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="163"/>
-      <c r="C12" s="164"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="139"/>
+      <c r="B12" s="168"/>
+      <c r="C12" s="169"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="143"/>
+      <c r="G12" s="144"/>
       <c r="H12" s="120" t="s">
         <v>36</v>
       </c>
@@ -3398,12 +3331,12 @@
       <c r="A13" s="52">
         <v>111</v>
       </c>
-      <c r="B13" s="165"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="141"/>
+      <c r="B13" s="170"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="146"/>
       <c r="H13" s="54">
         <v>43355</v>
       </c>
@@ -3442,18 +3375,18 @@
       <c r="A15" s="49">
         <v>2</v>
       </c>
-      <c r="B15" s="161" t="s">
+      <c r="B15" s="166" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="162"/>
-      <c r="D15" s="144" t="s">
+      <c r="C15" s="167"/>
+      <c r="D15" s="149" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="145"/>
-      <c r="F15" s="144" t="s">
+      <c r="E15" s="150"/>
+      <c r="F15" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="145"/>
+      <c r="G15" s="150"/>
       <c r="H15" s="132" t="s">
         <v>66</v>
       </c>
@@ -3467,12 +3400,12 @@
       <c r="A16" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="163"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="147"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="152"/>
       <c r="H16" s="131" t="s">
         <v>33</v>
       </c>
@@ -3488,12 +3421,12 @@
       <c r="A17" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="163"/>
-      <c r="C17" s="164"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="147"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="152"/>
       <c r="H17" s="51" t="s">
         <v>91</v>
       </c>
@@ -3509,12 +3442,12 @@
       <c r="A18" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="163"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="147"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="152"/>
       <c r="H18" s="131" t="s">
         <v>36</v>
       </c>
@@ -3528,12 +3461,12 @@
       <c r="A19" s="52">
         <v>211</v>
       </c>
-      <c r="B19" s="165"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="149"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="154"/>
       <c r="H19" s="51">
         <v>43355</v>
       </c>
@@ -3574,18 +3507,18 @@
       <c r="A21" s="49">
         <v>3</v>
       </c>
-      <c r="B21" s="161" t="s">
+      <c r="B21" s="166" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="162"/>
-      <c r="D21" s="144" t="s">
+      <c r="C21" s="167"/>
+      <c r="D21" s="149" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="145"/>
-      <c r="F21" s="144" t="s">
+      <c r="E21" s="150"/>
+      <c r="F21" s="149" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="145"/>
+      <c r="G21" s="150"/>
       <c r="H21" s="129" t="s">
         <v>83</v>
       </c>
@@ -3597,12 +3530,12 @@
       <c r="A22" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="163"/>
-      <c r="C22" s="164"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="147"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="152"/>
       <c r="H22" s="120" t="s">
         <v>33</v>
       </c>
@@ -3618,12 +3551,12 @@
       <c r="A23" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="163"/>
-      <c r="C23" s="164"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="147"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="152"/>
       <c r="H23" s="51" t="s">
         <v>93</v>
       </c>
@@ -3635,12 +3568,12 @@
       <c r="A24" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="163"/>
-      <c r="C24" s="164"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="147"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="152"/>
       <c r="H24" s="120" t="s">
         <v>36</v>
       </c>
@@ -3654,12 +3587,12 @@
       <c r="A25" s="52">
         <v>311</v>
       </c>
-      <c r="B25" s="165"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="149"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="171"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="154"/>
       <c r="H25" s="54">
         <v>43355</v>
       </c>
@@ -3668,21 +3601,21 @@
       <c r="K25" s="128"/>
     </row>
     <row r="26" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A26" s="196" t="s">
+      <c r="A26" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="134" t="s">
+      <c r="B26" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="135"/>
-      <c r="D26" s="134" t="s">
+      <c r="C26" s="138"/>
+      <c r="D26" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="203"/>
-      <c r="F26" s="134" t="s">
+      <c r="E26" s="200"/>
+      <c r="F26" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="203"/>
+      <c r="G26" s="200"/>
       <c r="H26" s="131" t="s">
         <v>28</v>
       </c>
@@ -3695,38 +3628,38 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A27" s="186">
+      <c r="A27" s="188">
         <v>3</v>
       </c>
-      <c r="B27" s="152" t="s">
+      <c r="B27" s="157" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="198"/>
-      <c r="D27" s="177" t="s">
+      <c r="C27" s="158"/>
+      <c r="D27" s="182" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="198"/>
-      <c r="F27" s="177" t="s">
+      <c r="E27" s="183"/>
+      <c r="F27" s="182" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="198"/>
+      <c r="G27" s="183"/>
       <c r="H27" s="54" t="s">
         <v>83</v>
       </c>
       <c r="I27" s="54"/>
       <c r="J27" s="55"/>
-      <c r="K27" s="204"/>
+      <c r="K27" s="201"/>
     </row>
     <row r="28" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A28" s="196" t="s">
+      <c r="A28" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="199"/>
-      <c r="C28" s="200"/>
-      <c r="D28" s="199"/>
-      <c r="E28" s="200"/>
-      <c r="F28" s="199"/>
-      <c r="G28" s="200"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="185"/>
       <c r="H28" s="131" t="s">
         <v>33</v>
       </c>
@@ -3736,85 +3669,85 @@
       <c r="J28" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="K28" s="205"/>
+      <c r="K28" s="209"/>
     </row>
     <row r="29" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A29" s="186" t="s">
+      <c r="A29" s="188" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="199"/>
-      <c r="C29" s="200"/>
-      <c r="D29" s="199"/>
-      <c r="E29" s="200"/>
-      <c r="F29" s="199"/>
-      <c r="G29" s="200"/>
+      <c r="B29" s="159"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="184"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="185"/>
       <c r="H29" s="54" t="s">
         <v>94</v>
       </c>
       <c r="I29" s="54"/>
       <c r="J29" s="55"/>
-      <c r="K29" s="205"/>
+      <c r="K29" s="209"/>
     </row>
     <row r="30" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A30" s="196" t="s">
+      <c r="A30" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="199"/>
-      <c r="C30" s="200"/>
-      <c r="D30" s="199"/>
-      <c r="E30" s="200"/>
-      <c r="F30" s="199"/>
-      <c r="G30" s="200"/>
+      <c r="B30" s="159"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="185"/>
       <c r="H30" s="131" t="s">
         <v>36</v>
       </c>
       <c r="I30" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="J30" s="197"/>
-      <c r="K30" s="205"/>
+      <c r="J30" s="199"/>
+      <c r="K30" s="209"/>
     </row>
     <row r="31" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A31" s="186">
+      <c r="A31" s="188">
         <v>411</v>
       </c>
-      <c r="B31" s="201"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="201"/>
-      <c r="E31" s="202"/>
-      <c r="F31" s="201"/>
-      <c r="G31" s="202"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="187"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="187"/>
       <c r="H31" s="54">
         <v>43355</v>
       </c>
       <c r="I31" s="54"/>
       <c r="J31" s="55"/>
-      <c r="K31" s="206"/>
-    </row>
-    <row r="32" spans="1:11" s="195" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A32" s="190" t="s">
+      <c r="K31" s="210"/>
+    </row>
+    <row r="32" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A32" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="191" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="192"/>
-      <c r="D32" s="191" t="s">
+      <c r="B32" s="134" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="135"/>
+      <c r="D32" s="134" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="192"/>
-      <c r="F32" s="191" t="s">
+      <c r="E32" s="135"/>
+      <c r="F32" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="192"/>
-      <c r="H32" s="193" t="s">
+      <c r="G32" s="135"/>
+      <c r="H32" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="193"/>
-      <c r="J32" s="193" t="s">
+      <c r="I32" s="121"/>
+      <c r="J32" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="194" t="s">
+      <c r="K32" s="48" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3822,289 +3755,289 @@
       <c r="A33" s="49">
         <v>5</v>
       </c>
-      <c r="B33" s="161" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="162"/>
-      <c r="D33" s="144" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="145"/>
-      <c r="F33" s="144" t="s">
+      <c r="B33" s="157" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="158"/>
+      <c r="D33" s="149" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="150"/>
+      <c r="F33" s="149" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="145"/>
-      <c r="H33" s="132" t="s">
-        <v>66</v>
-      </c>
-      <c r="I33" s="133"/>
-      <c r="J33" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="K33" s="126"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" s="140"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="208"/>
     </row>
     <row r="34" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A34" s="193" t="s">
+      <c r="A34" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="163"/>
-      <c r="C34" s="164"/>
-      <c r="D34" s="146"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="193" t="s">
+      <c r="B34" s="159"/>
+      <c r="C34" s="160"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="I34" s="193" t="s">
+      <c r="I34" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="J34" s="193" t="s">
+      <c r="J34" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="K34" s="127"/>
+      <c r="K34" s="208"/>
     </row>
     <row r="35" spans="1:11" ht="10.5" customHeight="1">
       <c r="A35" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="163"/>
-      <c r="C35" s="164"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="147"/>
+      <c r="B35" s="159"/>
+      <c r="C35" s="160"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="152"/>
       <c r="H35" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="I35" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="J35" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="K35" s="127"/>
+        <v>94</v>
+      </c>
+      <c r="I35" s="51"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="208"/>
     </row>
     <row r="36" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A36" s="193" t="s">
+      <c r="A36" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="163"/>
-      <c r="C36" s="164"/>
-      <c r="D36" s="146"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="193" t="s">
+      <c r="B36" s="159"/>
+      <c r="C36" s="160"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="I36" s="193" t="s">
+      <c r="I36" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="193"/>
-      <c r="K36" s="127"/>
-    </row>
-    <row r="37" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A37" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="165"/>
-      <c r="C37" s="166"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="148"/>
-      <c r="G37" s="149"/>
+      <c r="J36" s="136"/>
+      <c r="K36" s="208"/>
+    </row>
+    <row r="37" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A37" s="52">
+        <v>511</v>
+      </c>
+      <c r="B37" s="161"/>
+      <c r="C37" s="162"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="154"/>
       <c r="H37" s="54">
         <v>43355</v>
       </c>
-      <c r="I37" s="54">
+      <c r="I37" s="54"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="208"/>
+    </row>
+    <row r="38" spans="1:11" s="197" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A38" s="192" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="193" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="194"/>
+      <c r="D38" s="193" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="194"/>
+      <c r="F38" s="193" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="194"/>
+      <c r="H38" s="195" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="195"/>
+      <c r="J38" s="195" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" s="196" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A39" s="49">
+        <v>6</v>
+      </c>
+      <c r="B39" s="166" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="167"/>
+      <c r="D39" s="149" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="150"/>
+      <c r="F39" s="149" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="150"/>
+      <c r="H39" s="132" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39" s="133"/>
+      <c r="J39" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="K39" s="126"/>
+    </row>
+    <row r="40" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A40" s="195" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="168"/>
+      <c r="C40" s="169"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="151"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="195" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="195" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" s="195" t="s">
+        <v>37</v>
+      </c>
+      <c r="K40" s="127"/>
+    </row>
+    <row r="41" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A41" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="168"/>
+      <c r="C41" s="169"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="151"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="I41" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="J41" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="K41" s="127"/>
+    </row>
+    <row r="42" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A42" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="168"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="152"/>
+      <c r="F42" s="151"/>
+      <c r="G42" s="152"/>
+      <c r="H42" s="195" t="s">
+        <v>36</v>
+      </c>
+      <c r="I42" s="195" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="195"/>
+      <c r="K42" s="127"/>
+    </row>
+    <row r="43" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A43" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="170"/>
+      <c r="C43" s="171"/>
+      <c r="D43" s="153"/>
+      <c r="E43" s="154"/>
+      <c r="F43" s="153"/>
+      <c r="G43" s="154"/>
+      <c r="H43" s="54">
         <v>43355</v>
       </c>
-      <c r="J37" s="49"/>
-      <c r="K37" s="127"/>
-    </row>
-    <row r="38" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A38" s="101" t="s">
+      <c r="I43" s="54">
+        <v>43355</v>
+      </c>
+      <c r="J43" s="49"/>
+      <c r="K43" s="127"/>
+    </row>
+    <row r="44" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A44" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="169" t="s">
+      <c r="B44" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
-      <c r="E38" s="170"/>
-      <c r="F38" s="170"/>
-      <c r="G38" s="170"/>
-      <c r="H38" s="170"/>
-      <c r="I38" s="170"/>
-      <c r="J38" s="170"/>
-      <c r="K38" s="171"/>
-    </row>
-    <row r="39" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A39" s="102" t="s">
+      <c r="C44" s="175"/>
+      <c r="D44" s="175"/>
+      <c r="E44" s="175"/>
+      <c r="F44" s="175"/>
+      <c r="G44" s="175"/>
+      <c r="H44" s="175"/>
+      <c r="I44" s="175"/>
+      <c r="J44" s="175"/>
+      <c r="K44" s="176"/>
+    </row>
+    <row r="45" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A45" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="158" t="s">
+      <c r="B45" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="159"/>
-      <c r="D39" s="159"/>
-      <c r="E39" s="159"/>
-      <c r="F39" s="159"/>
-      <c r="G39" s="159"/>
-      <c r="H39" s="159"/>
-      <c r="I39" s="159"/>
-      <c r="J39" s="159"/>
-      <c r="K39" s="160"/>
-    </row>
-    <row r="40" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A40" s="131" t="s">
+      <c r="C45" s="164"/>
+      <c r="D45" s="164"/>
+      <c r="E45" s="164"/>
+      <c r="F45" s="164"/>
+      <c r="G45" s="164"/>
+      <c r="H45" s="164"/>
+      <c r="I45" s="164"/>
+      <c r="J45" s="164"/>
+      <c r="K45" s="165"/>
+    </row>
+    <row r="46" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A46" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="150" t="s">
+      <c r="B46" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="151"/>
-      <c r="D40" s="150" t="s">
+      <c r="C46" s="156"/>
+      <c r="D46" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="151"/>
-      <c r="F40" s="150" t="s">
+      <c r="E46" s="156"/>
+      <c r="F46" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="G40" s="151"/>
-      <c r="H40" s="150" t="s">
+      <c r="G46" s="156"/>
+      <c r="H46" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="151"/>
-      <c r="J40" s="131" t="s">
+      <c r="I46" s="156"/>
+      <c r="J46" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="K40" s="131" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A41" s="49">
-        <v>6</v>
-      </c>
-      <c r="B41" s="152" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="153"/>
-      <c r="D41" s="177" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="178"/>
-      <c r="F41" s="177" t="s">
-        <v>69</v>
-      </c>
-      <c r="G41" s="178"/>
-      <c r="H41" s="172" t="s">
-        <v>66</v>
-      </c>
-      <c r="I41" s="173"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="174"/>
-    </row>
-    <row r="42" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A42" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="154"/>
-      <c r="C42" s="155"/>
-      <c r="D42" s="179"/>
-      <c r="E42" s="180"/>
-      <c r="F42" s="179"/>
-      <c r="G42" s="180"/>
-      <c r="H42" s="131" t="s">
-        <v>33</v>
-      </c>
-      <c r="I42" s="131" t="s">
-        <v>1</v>
-      </c>
-      <c r="J42" s="131" t="s">
-        <v>37</v>
-      </c>
-      <c r="K42" s="175"/>
-    </row>
-    <row r="43" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A43" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="154"/>
-      <c r="C43" s="155"/>
-      <c r="D43" s="179"/>
-      <c r="E43" s="180"/>
-      <c r="F43" s="179"/>
-      <c r="G43" s="180"/>
-      <c r="H43" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="I43" s="51"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="175"/>
-    </row>
-    <row r="44" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A44" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="154"/>
-      <c r="C44" s="155"/>
-      <c r="D44" s="179"/>
-      <c r="E44" s="180"/>
-      <c r="F44" s="179"/>
-      <c r="G44" s="180"/>
-      <c r="H44" s="131" t="s">
-        <v>36</v>
-      </c>
-      <c r="I44" s="131" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" s="131"/>
-      <c r="K44" s="175"/>
-    </row>
-    <row r="45" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A45" s="52">
-        <v>611</v>
-      </c>
-      <c r="B45" s="156"/>
-      <c r="C45" s="157"/>
-      <c r="D45" s="181"/>
-      <c r="E45" s="182"/>
-      <c r="F45" s="181"/>
-      <c r="G45" s="182"/>
-      <c r="H45" s="54">
-        <v>43355</v>
-      </c>
-      <c r="I45" s="51"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="176"/>
-    </row>
-    <row r="46" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A46" s="120">
-        <v>511</v>
-      </c>
-      <c r="B46" s="167" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="168"/>
-      <c r="D46" s="167" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" s="168"/>
-      <c r="F46" s="167" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" s="168"/>
-      <c r="H46" s="167" t="s">
-        <v>28</v>
-      </c>
-      <c r="I46" s="168"/>
-      <c r="J46" s="120" t="s">
-        <v>29</v>
-      </c>
-      <c r="K46" s="123" t="s">
+      <c r="K46" s="131" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4112,323 +4045,353 @@
       <c r="A47" s="49">
         <v>7</v>
       </c>
-      <c r="B47" s="152" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="153"/>
-      <c r="D47" s="177" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="178"/>
-      <c r="F47" s="177" t="s">
-        <v>73</v>
-      </c>
-      <c r="G47" s="178"/>
-      <c r="H47" s="172" t="s">
-        <v>34</v>
-      </c>
-      <c r="I47" s="173"/>
-      <c r="J47" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="K47" s="174"/>
+      <c r="B47" s="157" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="158"/>
+      <c r="D47" s="182" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="183"/>
+      <c r="F47" s="182" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="183"/>
+      <c r="H47" s="177" t="s">
+        <v>66</v>
+      </c>
+      <c r="I47" s="178"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="179"/>
     </row>
     <row r="48" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A48" s="120" t="s">
+      <c r="A48" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="154"/>
-      <c r="C48" s="155"/>
-      <c r="D48" s="179"/>
-      <c r="E48" s="180"/>
-      <c r="F48" s="179"/>
-      <c r="G48" s="180"/>
-      <c r="H48" s="120" t="s">
+      <c r="B48" s="159"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="184"/>
+      <c r="E48" s="185"/>
+      <c r="F48" s="184"/>
+      <c r="G48" s="185"/>
+      <c r="H48" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="I48" s="120" t="s">
+      <c r="I48" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="J48" s="120" t="s">
+      <c r="J48" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="K48" s="175"/>
+      <c r="K48" s="180"/>
     </row>
     <row r="49" spans="1:11" ht="10.5" customHeight="1">
       <c r="A49" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B49" s="154"/>
-      <c r="C49" s="155"/>
-      <c r="D49" s="179"/>
-      <c r="E49" s="180"/>
-      <c r="F49" s="179"/>
-      <c r="G49" s="180"/>
+      <c r="B49" s="159"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="184"/>
+      <c r="E49" s="185"/>
+      <c r="F49" s="184"/>
+      <c r="G49" s="185"/>
       <c r="H49" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="I49" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="J49" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="K49" s="175"/>
+        <v>94</v>
+      </c>
+      <c r="I49" s="51"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="180"/>
     </row>
     <row r="50" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="154"/>
-      <c r="C50" s="155"/>
-      <c r="D50" s="179"/>
-      <c r="E50" s="180"/>
-      <c r="F50" s="179"/>
-      <c r="G50" s="180"/>
-      <c r="H50" s="47" t="s">
+      <c r="B50" s="159"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="184"/>
+      <c r="E50" s="185"/>
+      <c r="F50" s="184"/>
+      <c r="G50" s="185"/>
+      <c r="H50" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="I50" s="47" t="s">
+      <c r="I50" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="J50" s="47"/>
-      <c r="K50" s="175"/>
+      <c r="J50" s="131"/>
+      <c r="K50" s="180"/>
     </row>
     <row r="51" spans="1:11" ht="10.5" customHeight="1">
       <c r="A51" s="52">
         <v>711</v>
       </c>
-      <c r="B51" s="156"/>
-      <c r="C51" s="157"/>
-      <c r="D51" s="181"/>
-      <c r="E51" s="182"/>
-      <c r="F51" s="181"/>
-      <c r="G51" s="182"/>
+      <c r="B51" s="161"/>
+      <c r="C51" s="162"/>
+      <c r="D51" s="186"/>
+      <c r="E51" s="187"/>
+      <c r="F51" s="186"/>
+      <c r="G51" s="187"/>
       <c r="H51" s="54">
         <v>43355</v>
       </c>
-      <c r="I51" s="54">
-        <v>43355</v>
-      </c>
+      <c r="I51" s="51"/>
       <c r="J51" s="49"/>
-      <c r="K51" s="176"/>
-    </row>
-    <row r="52" spans="1:11" s="211" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A52" s="207">
-        <v>811</v>
-      </c>
-      <c r="B52" s="208" t="s">
+      <c r="K51" s="181"/>
+    </row>
+    <row r="52" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A52" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="209"/>
-      <c r="D52" s="208" t="s">
+      <c r="C52" s="173"/>
+      <c r="D52" s="172" t="s">
         <v>58</v>
       </c>
-      <c r="E52" s="209"/>
-      <c r="F52" s="208" t="s">
+      <c r="E52" s="173"/>
+      <c r="F52" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="G52" s="209"/>
-      <c r="H52" s="208" t="s">
+      <c r="G52" s="173"/>
+      <c r="H52" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="I52" s="209"/>
-      <c r="J52" s="207" t="s">
+      <c r="I52" s="173"/>
+      <c r="J52" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="K52" s="210" t="s">
+      <c r="K52" s="123" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A53" s="52"/>
-      <c r="B53" s="152"/>
-      <c r="C53" s="198"/>
-      <c r="D53" s="177"/>
-      <c r="E53" s="198"/>
-      <c r="F53" s="177"/>
-      <c r="G53" s="198"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="174"/>
+      <c r="A53" s="49">
+        <v>8</v>
+      </c>
+      <c r="B53" s="157" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="158"/>
+      <c r="D53" s="182" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="183"/>
+      <c r="F53" s="182" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53" s="183"/>
+      <c r="H53" s="177" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" s="178"/>
+      <c r="J53" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="K53" s="179"/>
     </row>
     <row r="54" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A54" s="212"/>
-      <c r="B54" s="199"/>
-      <c r="C54" s="200"/>
-      <c r="D54" s="199"/>
-      <c r="E54" s="200"/>
-      <c r="F54" s="199"/>
-      <c r="G54" s="200"/>
-      <c r="H54" s="131" t="s">
+      <c r="A54" s="120" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="159"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="185"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="185"/>
+      <c r="H54" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="I54" s="131" t="s">
+      <c r="I54" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="J54" s="131" t="s">
+      <c r="J54" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="K54" s="175"/>
+      <c r="K54" s="180"/>
     </row>
     <row r="55" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A55" s="52"/>
-      <c r="B55" s="199"/>
-      <c r="C55" s="200"/>
-      <c r="D55" s="199"/>
-      <c r="E55" s="200"/>
-      <c r="F55" s="199"/>
-      <c r="G55" s="200"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="175"/>
-    </row>
-    <row r="56" spans="1:11" s="216" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A56" s="212"/>
-      <c r="B56" s="199"/>
-      <c r="C56" s="200"/>
-      <c r="D56" s="199"/>
-      <c r="E56" s="200"/>
-      <c r="F56" s="199"/>
-      <c r="G56" s="200"/>
-      <c r="H56" s="131" t="s">
+      <c r="A55" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="159"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="184"/>
+      <c r="E55" s="185"/>
+      <c r="F55" s="184"/>
+      <c r="G55" s="185"/>
+      <c r="H55" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="I55" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="J55" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="K55" s="180"/>
+    </row>
+    <row r="56" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A56" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="159"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="184"/>
+      <c r="E56" s="185"/>
+      <c r="F56" s="184"/>
+      <c r="G56" s="185"/>
+      <c r="H56" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="I56" s="131" t="s">
+      <c r="I56" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="J56" s="131"/>
-      <c r="K56" s="175"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="180"/>
     </row>
     <row r="57" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A57" s="215"/>
-      <c r="B57" s="201"/>
-      <c r="C57" s="202"/>
-      <c r="D57" s="201"/>
-      <c r="E57" s="202"/>
-      <c r="F57" s="201"/>
-      <c r="G57" s="202"/>
+      <c r="A57" s="52">
+        <v>711</v>
+      </c>
+      <c r="B57" s="161"/>
+      <c r="C57" s="162"/>
+      <c r="D57" s="186"/>
+      <c r="E57" s="187"/>
+      <c r="F57" s="186"/>
+      <c r="G57" s="187"/>
       <c r="H57" s="54">
         <v>43355</v>
       </c>
-      <c r="I57" s="213"/>
-      <c r="J57" s="214"/>
-      <c r="K57" s="176"/>
-    </row>
-    <row r="58" spans="1:11" s="189" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A58" s="188">
+      <c r="I57" s="54">
+        <v>43355</v>
+      </c>
+      <c r="J57" s="49"/>
+      <c r="K57" s="181"/>
+    </row>
+    <row r="58" spans="1:11" s="191" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A58" s="190" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="205" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="206"/>
+      <c r="D58" s="205" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="206"/>
+      <c r="F58" s="205" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" s="206"/>
+      <c r="H58" s="205" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" s="206"/>
+      <c r="J58" s="190" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58" s="189" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A59" s="204">
+        <v>9</v>
+      </c>
+      <c r="B59" s="157"/>
+      <c r="C59" s="158"/>
+      <c r="F59" s="182"/>
+      <c r="G59" s="183"/>
+      <c r="H59" s="202"/>
+      <c r="I59" s="202"/>
+      <c r="J59" s="203"/>
+      <c r="K59" s="179"/>
+    </row>
+    <row r="60" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A60" s="207" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="159"/>
+      <c r="C60" s="160"/>
+      <c r="F60" s="184"/>
+      <c r="G60" s="185"/>
+      <c r="H60" s="195" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" s="195" t="s">
+        <v>1</v>
+      </c>
+      <c r="J60" s="195" t="s">
+        <v>37</v>
+      </c>
+      <c r="K60" s="180"/>
+    </row>
+    <row r="61" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A61" s="204" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" s="159"/>
+      <c r="C61" s="160"/>
+      <c r="F61" s="184"/>
+      <c r="G61" s="185"/>
+      <c r="H61" s="202"/>
+      <c r="I61" s="202"/>
+      <c r="J61" s="203"/>
+      <c r="K61" s="180"/>
+    </row>
+    <row r="62" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A62" s="207" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="159"/>
+      <c r="C62" s="160"/>
+      <c r="F62" s="184"/>
+      <c r="G62" s="185"/>
+      <c r="H62" s="195" t="s">
+        <v>36</v>
+      </c>
+      <c r="I62" s="195" t="s">
+        <v>32</v>
+      </c>
+      <c r="J62" s="195"/>
+      <c r="K62" s="180"/>
+    </row>
+    <row r="63" spans="1:11" ht="10.5" customHeight="1">
+      <c r="A63" s="52">
         <v>911</v>
       </c>
-      <c r="B58" s="217" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" s="218"/>
-      <c r="D58" s="217" t="s">
-        <v>58</v>
-      </c>
-      <c r="E58" s="218"/>
-      <c r="F58" s="217" t="s">
-        <v>27</v>
-      </c>
-      <c r="G58" s="218"/>
-      <c r="H58" s="217" t="s">
-        <v>28</v>
-      </c>
-      <c r="I58" s="218"/>
-      <c r="J58" s="188" t="s">
-        <v>29</v>
-      </c>
-      <c r="K58" s="187" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A59" s="215"/>
-      <c r="B59" s="152"/>
-      <c r="C59" s="198"/>
-      <c r="F59" s="177"/>
-      <c r="G59" s="198"/>
-      <c r="H59" s="213"/>
-      <c r="I59" s="213"/>
-      <c r="J59" s="214"/>
-      <c r="K59" s="174"/>
-    </row>
-    <row r="60" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A60" s="219"/>
-      <c r="B60" s="199"/>
-      <c r="C60" s="200"/>
-      <c r="F60" s="199"/>
-      <c r="G60" s="200"/>
-      <c r="H60" s="193" t="s">
-        <v>33</v>
-      </c>
-      <c r="I60" s="193" t="s">
-        <v>1</v>
-      </c>
-      <c r="J60" s="193" t="s">
-        <v>37</v>
-      </c>
-      <c r="K60" s="175"/>
-    </row>
-    <row r="61" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A61" s="215"/>
-      <c r="B61" s="199"/>
-      <c r="C61" s="200"/>
-      <c r="F61" s="199"/>
-      <c r="G61" s="200"/>
-      <c r="H61" s="213"/>
-      <c r="I61" s="213"/>
-      <c r="J61" s="214"/>
-      <c r="K61" s="175"/>
-    </row>
-    <row r="62" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A62" s="219"/>
-      <c r="B62" s="199"/>
-      <c r="C62" s="200"/>
-      <c r="F62" s="199"/>
-      <c r="G62" s="200"/>
-      <c r="H62" s="193" t="s">
-        <v>36</v>
-      </c>
-      <c r="I62" s="193" t="s">
-        <v>32</v>
-      </c>
-      <c r="J62" s="193"/>
-      <c r="K62" s="175"/>
-    </row>
-    <row r="63" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A63" s="52"/>
-      <c r="B63" s="201"/>
-      <c r="C63" s="202"/>
-      <c r="F63" s="201"/>
-      <c r="G63" s="202"/>
+      <c r="B63" s="161"/>
+      <c r="C63" s="162"/>
+      <c r="F63" s="186"/>
+      <c r="G63" s="187"/>
       <c r="H63" s="54"/>
       <c r="I63" s="54"/>
       <c r="J63" s="49"/>
-      <c r="K63" s="176"/>
+      <c r="K63" s="181"/>
     </row>
     <row r="64" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A64" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B64" s="167" t="s">
+      <c r="B64" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="168"/>
-      <c r="D64" s="167" t="s">
+      <c r="C64" s="173"/>
+      <c r="D64" s="172" t="s">
         <v>58</v>
       </c>
-      <c r="E64" s="168"/>
-      <c r="F64" s="167" t="s">
+      <c r="E64" s="173"/>
+      <c r="F64" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="G64" s="168"/>
-      <c r="H64" s="185" t="s">
+      <c r="G64" s="173"/>
+      <c r="H64" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="I64" s="185"/>
+      <c r="I64" s="173"/>
       <c r="J64" s="47" t="s">
         <v>29</v>
       </c>
@@ -4440,37 +4403,37 @@
       <c r="A65" s="49">
         <v>10</v>
       </c>
-      <c r="B65" s="152" t="s">
+      <c r="B65" s="157" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="153"/>
-      <c r="D65" s="177" t="s">
+      <c r="C65" s="158"/>
+      <c r="D65" s="182" t="s">
         <v>75</v>
       </c>
-      <c r="E65" s="178"/>
-      <c r="F65" s="177" t="s">
+      <c r="E65" s="183"/>
+      <c r="F65" s="182" t="s">
         <v>73</v>
       </c>
-      <c r="G65" s="178"/>
-      <c r="H65" s="183" t="s">
+      <c r="G65" s="183"/>
+      <c r="H65" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="I65" s="184"/>
+      <c r="I65" s="178"/>
       <c r="J65" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="K65" s="174"/>
+      <c r="K65" s="179"/>
     </row>
     <row r="66" spans="1:11" ht="10.5" customHeight="1">
       <c r="A66" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="154"/>
-      <c r="C66" s="155"/>
-      <c r="D66" s="179"/>
-      <c r="E66" s="180"/>
-      <c r="F66" s="179"/>
-      <c r="G66" s="180"/>
+      <c r="B66" s="159"/>
+      <c r="C66" s="160"/>
+      <c r="D66" s="184"/>
+      <c r="E66" s="185"/>
+      <c r="F66" s="184"/>
+      <c r="G66" s="185"/>
       <c r="H66" s="47" t="s">
         <v>33</v>
       </c>
@@ -4480,18 +4443,18 @@
       <c r="J66" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="K66" s="175"/>
+      <c r="K66" s="180"/>
     </row>
     <row r="67" spans="1:11" ht="10.5" customHeight="1">
       <c r="A67" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="154"/>
-      <c r="C67" s="155"/>
-      <c r="D67" s="179"/>
-      <c r="E67" s="180"/>
-      <c r="F67" s="179"/>
-      <c r="G67" s="180"/>
+      <c r="B67" s="159"/>
+      <c r="C67" s="160"/>
+      <c r="D67" s="184"/>
+      <c r="E67" s="185"/>
+      <c r="F67" s="184"/>
+      <c r="G67" s="185"/>
       <c r="H67" s="51" t="s">
         <v>39</v>
       </c>
@@ -4501,18 +4464,18 @@
       <c r="J67" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="K67" s="175"/>
+      <c r="K67" s="180"/>
     </row>
     <row r="68" spans="1:11" ht="10.5" customHeight="1">
       <c r="A68" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="154"/>
-      <c r="C68" s="155"/>
-      <c r="D68" s="179"/>
-      <c r="E68" s="180"/>
-      <c r="F68" s="179"/>
-      <c r="G68" s="180"/>
+      <c r="B68" s="159"/>
+      <c r="C68" s="160"/>
+      <c r="D68" s="184"/>
+      <c r="E68" s="185"/>
+      <c r="F68" s="184"/>
+      <c r="G68" s="185"/>
       <c r="H68" s="47" t="s">
         <v>36</v>
       </c>
@@ -4520,18 +4483,18 @@
         <v>32</v>
       </c>
       <c r="J68" s="47"/>
-      <c r="K68" s="175"/>
+      <c r="K68" s="180"/>
     </row>
     <row r="69" spans="1:11" ht="10.5" customHeight="1">
       <c r="A69" s="52">
         <v>1011</v>
       </c>
-      <c r="B69" s="156"/>
-      <c r="C69" s="157"/>
-      <c r="D69" s="181"/>
-      <c r="E69" s="182"/>
-      <c r="F69" s="181"/>
-      <c r="G69" s="182"/>
+      <c r="B69" s="161"/>
+      <c r="C69" s="162"/>
+      <c r="D69" s="186"/>
+      <c r="E69" s="187"/>
+      <c r="F69" s="186"/>
+      <c r="G69" s="187"/>
       <c r="H69" s="51">
         <v>43355</v>
       </c>
@@ -4539,7 +4502,7 @@
         <v>43355</v>
       </c>
       <c r="J69" s="49"/>
-      <c r="K69" s="176"/>
+      <c r="K69" s="181"/>
     </row>
     <row r="70" spans="1:11" s="60" customFormat="1">
       <c r="A70" s="64"/>
@@ -4941,66 +4904,61 @@
       <c r="K126" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="D53:E57"/>
-    <mergeCell ref="F53:G57"/>
+  <mergeCells count="54">
     <mergeCell ref="B59:C63"/>
     <mergeCell ref="F59:G63"/>
-    <mergeCell ref="K53:K57"/>
     <mergeCell ref="K59:K63"/>
     <mergeCell ref="B65:C69"/>
-    <mergeCell ref="D47:E51"/>
+    <mergeCell ref="D53:E57"/>
     <mergeCell ref="D65:E69"/>
     <mergeCell ref="F65:G69"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B47:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="B53:C57"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="F58:G58"/>
-    <mergeCell ref="B53:C57"/>
     <mergeCell ref="K65:K69"/>
-    <mergeCell ref="F47:G51"/>
-    <mergeCell ref="K47:K51"/>
-    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="F53:G57"/>
+    <mergeCell ref="K53:K57"/>
+    <mergeCell ref="H53:I53"/>
     <mergeCell ref="H65:I65"/>
     <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H52:I52"/>
     <mergeCell ref="H58:I58"/>
     <mergeCell ref="B9:C13"/>
     <mergeCell ref="D9:E13"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B44:K44"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="K47:K51"/>
+    <mergeCell ref="D47:E51"/>
     <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="K41:K45"/>
-    <mergeCell ref="D41:E45"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G45"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="F47:G51"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B27:C31"/>
     <mergeCell ref="D27:E31"/>
     <mergeCell ref="F27:G31"/>
     <mergeCell ref="K27:K31"/>
     <mergeCell ref="F15:G19"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B41:C45"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C51"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="B45:K45"/>
     <mergeCell ref="B21:C25"/>
     <mergeCell ref="D21:E25"/>
     <mergeCell ref="D15:E19"/>
     <mergeCell ref="B15:C19"/>
     <mergeCell ref="F21:G25"/>
+    <mergeCell ref="F39:G43"/>
+    <mergeCell ref="D39:E43"/>
+    <mergeCell ref="B39:C43"/>
+    <mergeCell ref="B33:C37"/>
+    <mergeCell ref="D33:E37"/>
     <mergeCell ref="F33:G37"/>
-    <mergeCell ref="D33:E37"/>
-    <mergeCell ref="B33:C37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H65:I65">

--- a/Quantriduanexcel.xlsx
+++ b/Quantriduanexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRUNG DONG\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B72AEF5-00C8-4A41-B553-FCB9F384091D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8FE87F-6E0A-4D70-820E-F1C16AA68611}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="100">
   <si>
     <t>Online ID</t>
   </si>
@@ -294,19 +294,10 @@
     <t>Not OK</t>
   </si>
   <si>
-    <t>TienND</t>
-  </si>
-  <si>
     <t>Test Date</t>
   </si>
   <si>
     <t>Repairer</t>
-  </si>
-  <si>
-    <t>AnhDV</t>
-  </si>
-  <si>
-    <t>DinhPX</t>
   </si>
   <si>
     <t>OK</t>
@@ -492,6 +483,15 @@
   </si>
   <si>
     <t>Do không khớp vân tay</t>
+  </si>
+  <si>
+    <t>Nhập sai mat khẩu khi xác nhận mật khẩu để và phiếu lương</t>
+  </si>
+  <si>
+    <t>nhập sai mất khẩu</t>
+  </si>
+  <si>
+    <t>yêu cầu nhập lại</t>
   </si>
 </sst>
 </file>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="5"/>
@@ -2169,7 +2169,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="P11" s="33"/>
       <c r="Q11" s="33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R11" s="33"/>
       <c r="S11" s="33" t="s">
@@ -2317,7 +2317,7 @@
     <row r="15" spans="1:24">
       <c r="B15" s="30"/>
       <c r="D15" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
@@ -2500,7 +2500,7 @@
       <c r="B22" s="15"/>
       <c r="C22" s="4"/>
       <c r="D22" s="27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
@@ -2527,7 +2527,7 @@
       <c r="G24" s="44"/>
       <c r="H24" s="44"/>
       <c r="L24" s="116" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M24" s="106"/>
       <c r="N24" s="106"/>
@@ -3071,8 +3071,8 @@
   </sheetPr>
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:C63"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B53" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59:G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3086,7 +3086,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="60" customFormat="1">
       <c r="A1" s="79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B1" s="80" t="str">
         <f>Overview!E9</f>
@@ -3097,26 +3097,26 @@
       <c r="E1" s="81"/>
       <c r="F1" s="81"/>
       <c r="G1" s="82" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H1" s="83" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I1" s="103">
         <f>COUNTIF(H1:H816,"OK")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1" s="84" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" s="60" customFormat="1">
       <c r="A2" s="118" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2" s="87"/>
       <c r="D2" s="87"/>
@@ -3124,23 +3124,23 @@
       <c r="F2" s="88"/>
       <c r="G2" s="89"/>
       <c r="H2" s="90" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I2" s="104">
         <f>COUNTIF(H2:H817,"Not OK")</f>
         <v>2</v>
       </c>
       <c r="J2" s="91" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K2" s="92"/>
     </row>
     <row r="3" spans="1:11" s="60" customFormat="1" ht="11.25" customHeight="1">
       <c r="A3" s="86" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" s="87" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="87"/>
@@ -3148,14 +3148,14 @@
       <c r="F3" s="88"/>
       <c r="G3" s="89"/>
       <c r="H3" s="90" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I3" s="105">
         <f>COUNTIF(H2:H817,"Untested")</f>
         <v>0</v>
       </c>
       <c r="J3" s="91" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K3" s="92"/>
     </row>
@@ -3167,7 +3167,7 @@
       <c r="E4" s="88"/>
       <c r="F4" s="88"/>
       <c r="G4" s="94" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4" s="87"/>
       <c r="I4" s="104">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="C8" s="123"/>
       <c r="D8" s="122" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E8" s="123"/>
       <c r="F8" s="122" t="s">
@@ -3252,19 +3252,19 @@
         <v>1</v>
       </c>
       <c r="B9" s="166" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C9" s="167"/>
       <c r="D9" s="149" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E9" s="150"/>
       <c r="F9" s="141" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G9" s="142"/>
       <c r="H9" s="129" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I9" s="130"/>
       <c r="J9" s="49"/>
@@ -3287,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" s="127"/>
     </row>
@@ -3302,7 +3302,7 @@
       <c r="F11" s="143"/>
       <c r="G11" s="144"/>
       <c r="H11" s="51" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I11" s="51"/>
       <c r="J11" s="49"/>
@@ -3319,7 +3319,7 @@
       <c r="F12" s="143"/>
       <c r="G12" s="144"/>
       <c r="H12" s="120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="120" t="s">
         <v>32</v>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C14" s="125"/>
       <c r="D14" s="124" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E14" s="125"/>
       <c r="F14" s="124" t="s">
@@ -3376,19 +3376,19 @@
         <v>2</v>
       </c>
       <c r="B15" s="166" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C15" s="167"/>
       <c r="D15" s="149" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E15" s="150"/>
       <c r="F15" s="149" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G15" s="150"/>
       <c r="H15" s="132" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I15" s="133"/>
       <c r="J15" s="53" t="s">
@@ -3413,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K16" s="127"/>
     </row>
@@ -3428,13 +3428,13 @@
       <c r="F17" s="151"/>
       <c r="G17" s="152"/>
       <c r="H17" s="51" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I17" s="51" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J17" s="49" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K17" s="127"/>
     </row>
@@ -3449,7 +3449,7 @@
       <c r="F18" s="151"/>
       <c r="G18" s="152"/>
       <c r="H18" s="131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I18" s="131" t="s">
         <v>32</v>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="C20" s="123"/>
       <c r="D20" s="122" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E20" s="123"/>
       <c r="F20" s="122" t="s">
@@ -3508,19 +3508,19 @@
         <v>3</v>
       </c>
       <c r="B21" s="166" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C21" s="167"/>
       <c r="D21" s="149" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E21" s="150"/>
       <c r="F21" s="149" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G21" s="150"/>
       <c r="H21" s="129" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I21" s="130"/>
       <c r="J21" s="49"/>
@@ -3543,13 +3543,13 @@
         <v>1</v>
       </c>
       <c r="J22" s="120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K22" s="127"/>
     </row>
     <row r="23" spans="1:11" ht="10.5" customHeight="1">
       <c r="A23" s="50" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B23" s="168"/>
       <c r="C23" s="169"/>
@@ -3558,7 +3558,7 @@
       <c r="F23" s="151"/>
       <c r="G23" s="152"/>
       <c r="H23" s="51" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I23" s="51"/>
       <c r="J23" s="49"/>
@@ -3575,7 +3575,7 @@
       <c r="F24" s="151"/>
       <c r="G24" s="152"/>
       <c r="H24" s="120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I24" s="120" t="s">
         <v>32</v>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="C26" s="138"/>
       <c r="D26" s="137" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E26" s="200"/>
       <c r="F26" s="137" t="s">
@@ -3632,19 +3632,19 @@
         <v>3</v>
       </c>
       <c r="B27" s="157" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C27" s="158"/>
       <c r="D27" s="182" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E27" s="183"/>
       <c r="F27" s="182" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G27" s="183"/>
       <c r="H27" s="54" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I27" s="54"/>
       <c r="J27" s="55"/>
@@ -3667,13 +3667,13 @@
         <v>1</v>
       </c>
       <c r="J28" s="131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K28" s="209"/>
     </row>
     <row r="29" spans="1:11" ht="10.5" customHeight="1">
       <c r="A29" s="188" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B29" s="159"/>
       <c r="C29" s="160"/>
@@ -3682,7 +3682,7 @@
       <c r="F29" s="184"/>
       <c r="G29" s="185"/>
       <c r="H29" s="54" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I29" s="54"/>
       <c r="J29" s="55"/>
@@ -3699,7 +3699,7 @@
       <c r="F30" s="184"/>
       <c r="G30" s="185"/>
       <c r="H30" s="131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I30" s="131" t="s">
         <v>32</v>
@@ -3733,7 +3733,7 @@
       </c>
       <c r="C32" s="135"/>
       <c r="D32" s="134" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E32" s="135"/>
       <c r="F32" s="134" t="s">
@@ -3756,19 +3756,19 @@
         <v>5</v>
       </c>
       <c r="B33" s="157" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C33" s="158"/>
       <c r="D33" s="149" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E33" s="150"/>
       <c r="F33" s="149" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G33" s="150"/>
       <c r="H33" s="139" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I33" s="140"/>
       <c r="J33" s="49"/>
@@ -3791,13 +3791,13 @@
         <v>1</v>
       </c>
       <c r="J34" s="136" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K34" s="208"/>
     </row>
     <row r="35" spans="1:11" ht="10.5" customHeight="1">
       <c r="A35" s="50" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B35" s="159"/>
       <c r="C35" s="160"/>
@@ -3806,7 +3806,7 @@
       <c r="F35" s="151"/>
       <c r="G35" s="152"/>
       <c r="H35" s="51" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I35" s="51"/>
       <c r="J35" s="49"/>
@@ -3823,7 +3823,7 @@
       <c r="F36" s="151"/>
       <c r="G36" s="152"/>
       <c r="H36" s="136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I36" s="136" t="s">
         <v>32</v>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="C38" s="194"/>
       <c r="D38" s="193" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E38" s="194"/>
       <c r="F38" s="193" t="s">
@@ -3880,19 +3880,19 @@
         <v>6</v>
       </c>
       <c r="B39" s="166" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C39" s="167"/>
       <c r="D39" s="149" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E39" s="150"/>
       <c r="F39" s="149" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G39" s="150"/>
       <c r="H39" s="132" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I39" s="133"/>
       <c r="J39" s="53" t="s">
@@ -3917,13 +3917,13 @@
         <v>1</v>
       </c>
       <c r="J40" s="195" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K40" s="127"/>
     </row>
     <row r="41" spans="1:11" ht="10.5" customHeight="1">
       <c r="A41" s="50" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B41" s="168"/>
       <c r="C41" s="169"/>
@@ -3932,13 +3932,13 @@
       <c r="F41" s="151"/>
       <c r="G41" s="152"/>
       <c r="H41" s="51" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I41" s="51" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J41" s="49" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K41" s="127"/>
     </row>
@@ -3953,7 +3953,7 @@
       <c r="F42" s="151"/>
       <c r="G42" s="152"/>
       <c r="H42" s="195" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I42" s="195" t="s">
         <v>32</v>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="43" spans="1:11" ht="11.25" customHeight="1">
       <c r="A43" s="52" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B43" s="170"/>
       <c r="C43" s="171"/>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="C46" s="156"/>
       <c r="D46" s="155" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E46" s="156"/>
       <c r="F46" s="155" t="s">
@@ -4046,19 +4046,19 @@
         <v>7</v>
       </c>
       <c r="B47" s="157" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C47" s="158"/>
       <c r="D47" s="182" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E47" s="183"/>
       <c r="F47" s="182" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G47" s="183"/>
       <c r="H47" s="177" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I47" s="178"/>
       <c r="J47" s="49"/>
@@ -4081,13 +4081,13 @@
         <v>1</v>
       </c>
       <c r="J48" s="131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K48" s="180"/>
     </row>
     <row r="49" spans="1:11" ht="10.5" customHeight="1">
       <c r="A49" s="50" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B49" s="159"/>
       <c r="C49" s="160"/>
@@ -4096,7 +4096,7 @@
       <c r="F49" s="184"/>
       <c r="G49" s="185"/>
       <c r="H49" s="51" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I49" s="51"/>
       <c r="J49" s="49"/>
@@ -4113,7 +4113,7 @@
       <c r="F50" s="184"/>
       <c r="G50" s="185"/>
       <c r="H50" s="131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I50" s="131" t="s">
         <v>32</v>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="C52" s="173"/>
       <c r="D52" s="172" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E52" s="173"/>
       <c r="F52" s="172" t="s">
@@ -4170,15 +4170,15 @@
         <v>8</v>
       </c>
       <c r="B53" s="157" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C53" s="158"/>
       <c r="D53" s="182" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E53" s="183"/>
       <c r="F53" s="182" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G53" s="183"/>
       <c r="H53" s="177" t="s">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="I53" s="178"/>
       <c r="J53" s="53" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K53" s="179"/>
     </row>
@@ -4207,13 +4207,13 @@
         <v>1</v>
       </c>
       <c r="J54" s="120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K54" s="180"/>
     </row>
     <row r="55" spans="1:11" ht="10.5" customHeight="1">
       <c r="A55" s="50" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B55" s="159"/>
       <c r="C55" s="160"/>
@@ -4222,13 +4222,13 @@
       <c r="F55" s="184"/>
       <c r="G55" s="185"/>
       <c r="H55" s="51" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I55" s="51" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J55" s="49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K55" s="180"/>
     </row>
@@ -4243,7 +4243,7 @@
       <c r="F56" s="184"/>
       <c r="G56" s="185"/>
       <c r="H56" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I56" s="47" t="s">
         <v>32</v>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="C58" s="206"/>
       <c r="D58" s="205" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E58" s="206"/>
       <c r="F58" s="205" t="s">
@@ -4301,11 +4301,20 @@
       <c r="A59" s="204">
         <v>9</v>
       </c>
-      <c r="B59" s="157"/>
+      <c r="B59" s="157" t="s">
+        <v>97</v>
+      </c>
       <c r="C59" s="158"/>
-      <c r="F59" s="182"/>
+      <c r="D59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="182" t="s">
+        <v>99</v>
+      </c>
       <c r="G59" s="183"/>
-      <c r="H59" s="202"/>
+      <c r="H59" s="202" t="s">
+        <v>37</v>
+      </c>
       <c r="I59" s="202"/>
       <c r="J59" s="203"/>
       <c r="K59" s="179"/>
@@ -4325,19 +4334,21 @@
         <v>1</v>
       </c>
       <c r="J60" s="195" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K60" s="180"/>
     </row>
     <row r="61" spans="1:11" ht="10.5" customHeight="1">
       <c r="A61" s="204" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B61" s="159"/>
       <c r="C61" s="160"/>
       <c r="F61" s="184"/>
       <c r="G61" s="185"/>
-      <c r="H61" s="202"/>
+      <c r="H61" s="202" t="s">
+        <v>87</v>
+      </c>
       <c r="I61" s="202"/>
       <c r="J61" s="203"/>
       <c r="K61" s="180"/>
@@ -4351,7 +4362,7 @@
       <c r="F62" s="184"/>
       <c r="G62" s="185"/>
       <c r="H62" s="195" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I62" s="195" t="s">
         <v>32</v>
@@ -4367,7 +4378,9 @@
       <c r="C63" s="162"/>
       <c r="F63" s="186"/>
       <c r="G63" s="187"/>
-      <c r="H63" s="54"/>
+      <c r="H63" s="54">
+        <v>43355</v>
+      </c>
       <c r="I63" s="54"/>
       <c r="J63" s="49"/>
       <c r="K63" s="181"/>
@@ -4381,7 +4394,7 @@
       </c>
       <c r="C64" s="173"/>
       <c r="D64" s="172" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E64" s="173"/>
       <c r="F64" s="172" t="s">
@@ -4404,15 +4417,15 @@
         <v>10</v>
       </c>
       <c r="B65" s="157" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C65" s="158"/>
       <c r="D65" s="182" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E65" s="183"/>
       <c r="F65" s="182" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G65" s="183"/>
       <c r="H65" s="177" t="s">
@@ -4420,7 +4433,7 @@
       </c>
       <c r="I65" s="178"/>
       <c r="J65" s="53" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K65" s="179"/>
     </row>
@@ -4441,13 +4454,13 @@
         <v>1</v>
       </c>
       <c r="J66" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K66" s="180"/>
     </row>
     <row r="67" spans="1:11" ht="10.5" customHeight="1">
       <c r="A67" s="50" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B67" s="159"/>
       <c r="C67" s="160"/>
@@ -4456,13 +4469,13 @@
       <c r="F67" s="184"/>
       <c r="G67" s="185"/>
       <c r="H67" s="51" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="I67" s="51" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="J67" s="49" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="K67" s="180"/>
     </row>
@@ -4477,7 +4490,7 @@
       <c r="F68" s="184"/>
       <c r="G68" s="185"/>
       <c r="H68" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I68" s="47" t="s">
         <v>32</v>
